--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0D21E2-0D1A-4DEE-9FCF-17101CF0E875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63412B76-7929-4B29-924F-21F9DD2AE7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16740" yWindow="4920" windowWidth="12528" windowHeight="8964" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Dataset</t>
   </si>
@@ -532,7 +532,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,10 +642,10 @@
         <v>28.19</v>
       </c>
       <c r="D6" s="5">
-        <v>62.6</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>6</v>
+        <v>49.03</v>
+      </c>
+      <c r="E6" s="11">
+        <v>-27.87</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">

--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63412B76-7929-4B29-924F-21F9DD2AE7D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0855FCCD-FE1E-4672-B985-83716359B8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="4920" windowWidth="12528" windowHeight="8964" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
+    <workbookView xWindow="8700" yWindow="645" windowWidth="12750" windowHeight="9285" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
   </bookViews>
   <sheets>
-    <sheet name="Patient1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
   <si>
     <t>Dataset</t>
   </si>
@@ -59,16 +57,22 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>Complete (Linear)</t>
-  </si>
-  <si>
-    <t>Complete (Poly, 2)</t>
-  </si>
-  <si>
     <t>NREM only</t>
   </si>
   <si>
     <t>REM only</t>
+  </si>
+  <si>
+    <t>P1 (Linear)</t>
+  </si>
+  <si>
+    <t>P1 + P2 (Linear)</t>
+  </si>
+  <si>
+    <t>P(1:4) (Linear)</t>
+  </si>
+  <si>
+    <t>P1 (Poly , 2)</t>
   </si>
 </sst>
 </file>
@@ -85,7 +89,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -195,7 +199,6 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -211,10 +214,11 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,241 +535,253 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C576D77C-DF2D-4C7F-B9E2-C19C9DB20FAA}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>72.86</v>
+      </c>
+      <c r="C2" s="11">
+        <v>43.49</v>
+      </c>
+      <c r="D2" s="2">
+        <v>62.6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
-        <v>72.86</v>
-      </c>
-      <c r="C2" s="13">
-        <v>43.49</v>
-      </c>
-      <c r="D2" s="3">
-        <v>62.6</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>71.72</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="12">
         <v>40.14</v>
       </c>
-      <c r="D3" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="D3" s="3">
+        <v>62.6</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>69.44</v>
+      </c>
+      <c r="C4" s="13">
+        <v>30.75</v>
+      </c>
+      <c r="D4" s="4">
+        <v>62.6</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="C5" s="12">
+        <v>30.75</v>
+      </c>
+      <c r="D5" s="3">
+        <v>62.6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>49.71</v>
+      </c>
+      <c r="C6" s="13">
+        <v>28.19</v>
+      </c>
+      <c r="D6" s="4">
+        <v>49.03</v>
+      </c>
+      <c r="E6" s="10">
+        <v>-27.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
-        <v>69.44</v>
-      </c>
-      <c r="C4" s="15">
-        <v>30.75</v>
-      </c>
-      <c r="D4" s="5">
-        <v>62.6</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="C5" s="14">
-        <v>30.75</v>
-      </c>
-      <c r="D5" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5">
-        <v>49.71</v>
-      </c>
-      <c r="C6" s="15">
-        <v>28.19</v>
-      </c>
-      <c r="D6" s="5">
-        <v>49.03</v>
-      </c>
-      <c r="E6" s="11">
-        <v>-27.87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="5">
-        <v>62.6</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="5">
-        <v>62.6</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="5">
-        <v>62.6</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="5">
-        <v>62.6</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="5">
-        <v>62.6</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E17" s="10" t="s">
+      <c r="B7" s="3">
+        <v>78.14</v>
+      </c>
+      <c r="C7" s="12">
+        <v>51.89</v>
+      </c>
+      <c r="D7" s="3">
+        <v>58.41</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4">
+        <v>73.44</v>
+      </c>
+      <c r="C8" s="13">
+        <v>43.94</v>
+      </c>
+      <c r="D8" s="4">
+        <v>63.67</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="3">
+        <v>62.6</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="4">
+        <v>62.6</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="3">
+        <v>62.6</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="4">
+        <v>62.6</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="3">
+        <v>62.6</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="4">
+        <v>62.6</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="3">
+        <v>62.6</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="4">
+        <v>62.6</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="3">
+        <v>62.6</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0855FCCD-FE1E-4672-B985-83716359B8F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8408C54-9B70-4C66-AEF1-7DECD2B1AC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8700" yWindow="645" windowWidth="12750" windowHeight="9285" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>Dataset</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Base CrossVal Performance</t>
   </si>
   <si>
-    <t>Sin Sleep Stage</t>
-  </si>
-  <si>
     <t>NaN</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>P1 (Poly , 2)</t>
+  </si>
+  <si>
+    <t>Sine Sleep Stage</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,7 +569,7 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
         <v>72.86</v>
@@ -581,12 +581,12 @@
         <v>62.6</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>71.72</v>
@@ -598,12 +598,12 @@
         <v>62.6</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
         <v>69.44</v>
@@ -615,12 +615,12 @@
         <v>62.6</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>69.099999999999994</v>
@@ -632,12 +632,12 @@
         <v>62.6</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4">
         <v>49.71</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3">
         <v>78.14</v>
@@ -666,12 +666,12 @@
         <v>58.41</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4">
         <v>73.44</v>
@@ -683,107 +683,71 @@
         <v>63.67</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="3"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="3">
-        <v>62.6</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="4"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="3"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="3">
-        <v>62.6</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="4"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="3">
-        <v>62.6</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="4"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="3"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="3">
-        <v>62.6</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="4"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="3"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="3">
-        <v>62.6</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8408C54-9B70-4C66-AEF1-7DECD2B1AC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B66D1E-DFA6-450C-BF55-C4DE6CE4FCD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="645" windowWidth="12750" windowHeight="9285" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Dataset</t>
   </si>
@@ -54,32 +54,32 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>NREM only</t>
-  </si>
-  <si>
-    <t>REM only</t>
-  </si>
-  <si>
-    <t>P1 (Linear)</t>
-  </si>
-  <si>
-    <t>P1 + P2 (Linear)</t>
-  </si>
-  <si>
-    <t>P(1:4) (Linear)</t>
-  </si>
-  <si>
     <t>P1 (Poly , 2)</t>
   </si>
   <si>
-    <t>Sine Sleep Stage</t>
+    <t>Support Vector Machine - Linear</t>
+  </si>
+  <si>
+    <t>Random Forest Classifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">P3 </t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +90,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -116,7 +124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -127,8 +135,58 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -136,10 +194,103 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -150,20 +301,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -176,18 +314,129 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thick">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -196,29 +445,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C576D77C-DF2D-4C7F-B9E2-C19C9DB20FAA}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,206 +853,224 @@
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:5" s="38" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+    </row>
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="12">
+        <v>77.739999999999995</v>
+      </c>
+      <c r="C3" s="13">
+        <v>41.79</v>
+      </c>
+      <c r="D3" s="12">
+        <v>62.03</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="6">
+        <v>79.91</v>
+      </c>
+      <c r="C4" s="7">
+        <v>59.17</v>
+      </c>
+      <c r="D4" s="6">
+        <v>48.24</v>
+      </c>
+      <c r="E4" s="16">
+        <v>-5.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="24">
+        <v>80.2</v>
+      </c>
+      <c r="C5" s="25">
+        <v>11.68</v>
+      </c>
+      <c r="D5" s="24">
+        <v>78.09</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="38" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
-        <v>72.86</v>
-      </c>
-      <c r="C2" s="11">
-        <v>43.49</v>
-      </c>
-      <c r="D2" s="2">
-        <v>62.6</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="28">
+        <v>78.31</v>
+      </c>
+      <c r="C7" s="29">
+        <v>42.33</v>
+      </c>
+      <c r="D7" s="28">
+        <v>57.06</v>
+      </c>
+      <c r="E7" s="30">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9">
+        <v>79.91</v>
+      </c>
+      <c r="C8" s="4">
+        <v>56.08</v>
+      </c>
+      <c r="D8" s="2">
+        <v>51.08</v>
+      </c>
+      <c r="E8" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="32">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="C9" s="33">
+        <v>19.91</v>
+      </c>
+      <c r="D9" s="32">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="E9" s="34">
+        <v>13.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="37"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
-        <v>71.72</v>
-      </c>
-      <c r="C3" s="12">
-        <v>40.14</v>
-      </c>
-      <c r="D3" s="3">
-        <v>62.6</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>69.44</v>
-      </c>
-      <c r="C4" s="13">
-        <v>30.75</v>
-      </c>
-      <c r="D4" s="4">
-        <v>62.6</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="3">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="C5" s="12">
-        <v>30.75</v>
-      </c>
-      <c r="D5" s="3">
-        <v>62.6</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="B11" s="9">
         <v>49.71</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C11" s="10">
         <v>28.19</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D11" s="9">
         <v>49.03</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E11" s="18">
         <v>-27.87</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3">
-        <v>78.14</v>
-      </c>
-      <c r="C7" s="12">
-        <v>51.89</v>
-      </c>
-      <c r="D7" s="3">
-        <v>58.41</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4">
-        <v>73.44</v>
-      </c>
-      <c r="C8" s="13">
-        <v>43.94</v>
-      </c>
-      <c r="D8" s="4">
-        <v>63.67</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9"/>
-    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="19"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="19"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="34"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS - Copy\Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55329EF0-EEFE-4231-B16A-E7D6E8B05FD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF2FDD6-9C6C-4428-B907-C464B8EF90E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6240" yWindow="2505" windowWidth="16965" windowHeight="11760" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>Dataset</t>
   </si>
@@ -88,13 +88,43 @@
   </si>
   <si>
     <t>Shuff MCC</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P1:P6</t>
+  </si>
+  <si>
+    <t>P7:P12</t>
+  </si>
+  <si>
+    <t>P1:P12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +148,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +180,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -439,17 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -458,6 +495,19 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -466,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -481,9 +531,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -503,9 +550,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -534,7 +578,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -546,8 +590,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -864,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C576D77C-DF2D-4C7F-B9E2-C19C9DB20FAA}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:E18"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,36 +937,36 @@
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="38" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="35" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:6" s="33" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -920,12 +981,12 @@
       <c r="D3" s="12">
         <v>62.03</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="50" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
@@ -937,12 +998,12 @@
       <c r="D4" s="6">
         <v>48.24</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>-5.95</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="9">
@@ -954,12 +1015,12 @@
       <c r="D5" s="9">
         <v>78.09</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="6">
@@ -971,286 +1032,629 @@
       <c r="D6" s="6">
         <v>65.77</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="46" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="9">
         <v>84.14</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="51" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="9">
         <v>84.14</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="48" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="6">
+        <v>81.98</v>
+      </c>
+      <c r="C8" s="44">
+        <v>58.98</v>
+      </c>
+      <c r="D8" s="6">
+        <v>61.58</v>
+      </c>
+      <c r="E8" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9">
+        <v>88.8</v>
+      </c>
+      <c r="C9" s="43">
+        <v>46.51</v>
+      </c>
+      <c r="D9" s="9">
+        <v>88.38</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6">
+        <v>92.38</v>
+      </c>
+      <c r="C10" s="44">
+        <v>45.62</v>
+      </c>
+      <c r="D10" s="6">
+        <v>91.93</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="9">
+        <v>79.09</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9">
+        <v>79.09</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="6">
+        <v>80.709999999999994</v>
+      </c>
+      <c r="C12" s="44">
+        <v>26.41</v>
+      </c>
+      <c r="D12" s="6">
+        <v>78.27</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="9">
+        <v>89.27</v>
+      </c>
+      <c r="C13" s="43">
+        <v>78.08</v>
+      </c>
+      <c r="D13" s="9">
+        <v>64.86</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="6">
+        <v>85.52</v>
+      </c>
+      <c r="C14" s="44">
+        <v>10.85</v>
+      </c>
+      <c r="D14" s="6">
+        <v>85.79</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B15" s="9">
         <v>78.03</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C15" s="10">
         <v>45.67</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D15" s="9">
         <v>63.61</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="E15" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B16" s="45">
         <v>75.150000000000006</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C16" s="5">
         <v>35.32</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D16" s="3">
         <v>68.23</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" s="44" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="E16" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="9">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="C17" s="10">
+        <v>40.32</v>
+      </c>
+      <c r="D17" s="9">
+        <v>66.989999999999995</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6">
+        <v>83.23</v>
+      </c>
+      <c r="C18" s="7">
+        <v>29.25</v>
+      </c>
+      <c r="D18" s="6">
+        <v>81.12</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="23">
+        <v>77.81</v>
+      </c>
+      <c r="C19" s="24">
+        <v>33.07</v>
+      </c>
+      <c r="D19" s="23">
+        <v>73.83</v>
+      </c>
+      <c r="E19" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" s="42" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="33"/>
+    </row>
+    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B21" s="26">
         <v>78.31</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C21" s="27">
         <v>42.33</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D21" s="26">
         <v>57.06</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E21" s="28">
         <v>3.8</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B22" s="9">
         <v>79.91</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C22" s="4">
         <v>56.08</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D22" s="2">
         <v>51.08</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E22" s="18">
         <v>11</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B23" s="3">
         <v>78.709999999999994</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C23" s="5">
         <v>19.91</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D23" s="3">
         <v>77.099999999999994</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E23" s="19">
         <v>13.36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B24" s="9">
         <v>76.349999999999994</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C24" s="10">
         <v>46.5</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D24" s="9">
         <v>62.79</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E24" s="17">
         <v>0.62</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B25" s="6">
         <v>83.37</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C25" s="7">
         <v>14.19</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D25" s="6">
         <v>83.37</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E25" s="15">
         <v>-7.15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="9">
+        <v>84.27</v>
+      </c>
+      <c r="C26" s="10">
+        <v>54.15</v>
+      </c>
+      <c r="D26" s="9">
+        <v>56.34</v>
+      </c>
+      <c r="E26" s="17">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="6">
+        <v>87.55</v>
+      </c>
+      <c r="C27" s="7">
+        <v>41.46</v>
+      </c>
+      <c r="D27" s="6">
+        <v>88.11</v>
+      </c>
+      <c r="E27" s="15">
+        <v>-2.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="9">
+        <v>91.82</v>
+      </c>
+      <c r="C28" s="10">
+        <v>39.42</v>
+      </c>
+      <c r="D28" s="9">
+        <v>91.6</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="6">
+        <v>80.77</v>
+      </c>
+      <c r="C29" s="7">
+        <v>38.79</v>
+      </c>
+      <c r="D29" s="6">
+        <v>78.3</v>
+      </c>
+      <c r="E29" s="15">
+        <v>-6.48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="9">
+        <v>81.02</v>
+      </c>
+      <c r="C30" s="10">
+        <v>33.68</v>
+      </c>
+      <c r="D30" s="9">
+        <v>77.77</v>
+      </c>
+      <c r="E30" s="17">
+        <v>-3.06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="6">
+        <v>90.45</v>
+      </c>
+      <c r="C31" s="7">
+        <v>79</v>
+      </c>
+      <c r="D31" s="6">
+        <v>61.08</v>
+      </c>
+      <c r="E31" s="15">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="9">
+        <v>86.45</v>
+      </c>
+      <c r="C32" s="10">
+        <v>35.29</v>
+      </c>
+      <c r="D32" s="9">
+        <v>85.13</v>
+      </c>
+      <c r="E32" s="17">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B33" s="6">
         <v>78.89</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C33" s="7">
         <v>46.82</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D33" s="6">
         <v>60.3</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E33" s="15">
         <v>6.56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B34" s="9">
         <v>79.03</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C34" s="10">
         <v>43.29</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D34" s="9">
         <v>66.59</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E34" s="17">
         <v>0.05</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="6">
+        <v>79.62</v>
+      </c>
+      <c r="C35" s="7">
+        <v>51.33</v>
+      </c>
+      <c r="D35" s="6">
+        <v>65.66</v>
+      </c>
+      <c r="E35" s="15">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="9">
+        <v>85.81</v>
+      </c>
+      <c r="C36" s="4">
+        <v>51.17</v>
+      </c>
+      <c r="D36" s="2">
+        <v>80.8</v>
+      </c>
+      <c r="E36" s="18">
+        <v>-2.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="30">
+        <v>82.4</v>
+      </c>
+      <c r="C37" s="31">
+        <v>50.43</v>
+      </c>
+      <c r="D37" s="30">
+        <v>73.37</v>
+      </c>
+      <c r="E37" s="32">
+        <v>-2.61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B39" s="9">
         <v>47.8</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C39" s="10">
         <v>-36.18</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D39" s="9">
         <v>55.82</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E39" s="17">
         <v>1.81</v>
       </c>
-      <c r="F19" s="45"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B40" s="3">
         <v>78.31</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C40" s="5">
         <v>42.4</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D40" s="3">
         <v>57.74</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E40" s="19">
         <v>-6.65</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="20"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="34"/>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="20"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="18"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="21"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="20"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="18"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="19"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="20"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="18"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="34"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A38:E38"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEF2FDD6-9C6C-4428-B907-C464B8EF90E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7FBB0C-6C60-4656-AFAB-EE7F644068C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="2505" windowWidth="16965" windowHeight="11760" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
+    <workbookView xWindow="16680" yWindow="5004" windowWidth="12528" windowHeight="8964" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
   <si>
     <t>Dataset</t>
   </si>
@@ -118,13 +118,19 @@
   </si>
   <si>
     <t>P1:P12</t>
+  </si>
+  <si>
+    <t>P1(REM ONLY)</t>
+  </si>
+  <si>
+    <t>P1(NREM ONLY)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +156,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -182,18 +196,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -510,13 +524,31 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -525,7 +557,6 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -547,16 +578,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -578,6 +605,26 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -587,30 +634,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,68 +967,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C576D77C-DF2D-4C7F-B9E2-C19C9DB20FAA}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="33" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-    </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>77.739999999999995</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="12">
         <v>41.79</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>62.03</v>
       </c>
-      <c r="E3" s="50" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="E3" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="6">
@@ -998,29 +1040,29 @@
       <c r="D4" s="6">
         <v>48.24</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>-5.95</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>80.2</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="9">
         <v>11.68</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>78.09</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="E5" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="6">
@@ -1032,169 +1074,168 @@
       <c r="D6" s="6">
         <v>65.77</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="E6" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>84.14</v>
       </c>
-      <c r="C7" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8">
         <v>84.14</v>
       </c>
-      <c r="E7" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+      <c r="E7" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="6">
         <v>81.98</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="35">
         <v>58.98</v>
       </c>
       <c r="D8" s="6">
         <v>61.58</v>
       </c>
-      <c r="E8" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="E8" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>88.8</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="34">
         <v>46.51</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>88.38</v>
       </c>
-      <c r="E9" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="E9" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="6">
         <v>92.38</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="35">
         <v>45.62</v>
       </c>
       <c r="D10" s="6">
         <v>91.93</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="E10" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>79.09</v>
       </c>
-      <c r="C11" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9">
+      <c r="C11" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8">
         <v>79.09</v>
       </c>
-      <c r="E11" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="E11" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="6">
         <v>80.709999999999994</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="35">
         <v>26.41</v>
       </c>
       <c r="D12" s="6">
         <v>78.27</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="E12" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>89.27</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="34">
         <v>78.08</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>64.86</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="E13" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="6">
         <v>85.52</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="35">
         <v>10.85</v>
       </c>
       <c r="D14" s="6">
         <v>85.79</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="E14" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>78.03</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <v>45.67</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>63.61</v>
       </c>
-      <c r="E15" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="E15" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="45">
+      <c r="B16" s="36">
         <v>75.150000000000006</v>
       </c>
       <c r="C16" s="5">
@@ -1203,31 +1244,29 @@
       <c r="D16" s="3">
         <v>68.23</v>
       </c>
-      <c r="E16" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="E16" s="39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>75.540000000000006</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="9">
         <v>40.32</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>66.989999999999995</v>
       </c>
-      <c r="E17" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="E17" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="6">
@@ -1239,420 +1278,483 @@
       <c r="D18" s="6">
         <v>81.12</v>
       </c>
-      <c r="E18" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="E18" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="23">
+      <c r="B19" s="8">
         <v>77.81</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="9">
         <v>33.07</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="8">
         <v>73.83</v>
       </c>
-      <c r="E19" s="48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" s="42" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="39" t="s">
+      <c r="E19" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="3">
+        <v>58.96</v>
+      </c>
+      <c r="C20" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="D20" s="3">
+        <v>61.75</v>
+      </c>
+      <c r="E20" s="18">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="49">
+        <v>84.6</v>
+      </c>
+      <c r="C21" s="50">
+        <v>78.91</v>
+      </c>
+      <c r="D21" s="49">
+        <v>63.32</v>
+      </c>
+      <c r="E21" s="51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="33"/>
-    </row>
-    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B23" s="22">
         <v>78.31</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C23" s="23">
         <v>42.33</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D23" s="22">
         <v>57.06</v>
       </c>
-      <c r="E21" s="28">
+      <c r="E23" s="24">
         <v>3.8</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B24" s="8">
         <v>79.91</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C24" s="4">
         <v>56.08</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D24" s="2">
         <v>51.08</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E24" s="17">
         <v>11</v>
       </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B25" s="3">
         <v>78.709999999999994</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C25" s="5">
         <v>19.91</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D25" s="3">
         <v>77.099999999999994</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E25" s="18">
         <v>13.36</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B26" s="8">
         <v>76.349999999999994</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C26" s="9">
         <v>46.5</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D26" s="8">
         <v>62.79</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E26" s="16">
         <v>0.62</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="46" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B27" s="6">
         <v>83.37</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C27" s="7">
         <v>14.19</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D27" s="6">
         <v>83.37</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E27" s="14">
         <v>-7.15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B28" s="8">
         <v>84.27</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C28" s="9">
         <v>54.15</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D28" s="8">
         <v>56.34</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E28" s="16">
         <v>2.8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B29" s="6">
         <v>87.55</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C29" s="7">
         <v>41.46</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D29" s="6">
         <v>88.11</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E29" s="14">
         <v>-2.72</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B30" s="8">
         <v>91.82</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C30" s="9">
         <v>39.42</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D30" s="8">
         <v>91.6</v>
       </c>
-      <c r="E28" s="48" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="46" t="s">
+      <c r="E30" s="38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B31" s="6">
         <v>80.77</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C31" s="7">
         <v>38.79</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D31" s="6">
         <v>78.3</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E31" s="14">
         <v>-6.48</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B32" s="8">
         <v>81.02</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C32" s="9">
         <v>33.68</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D32" s="8">
         <v>77.77</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E32" s="16">
         <v>-3.06</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B33" s="6">
         <v>90.45</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C33" s="7">
         <v>79</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D33" s="6">
         <v>61.08</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E33" s="14">
         <v>2.98</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B34" s="8">
         <v>86.45</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C34" s="9">
         <v>35.29</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D34" s="8">
         <v>85.13</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E34" s="16">
         <v>10.85</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B35" s="6">
         <v>78.89</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C35" s="7">
         <v>46.82</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D35" s="6">
         <v>60.3</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E35" s="14">
         <v>6.56</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B36" s="8">
         <v>79.03</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C36" s="9">
         <v>43.29</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D36" s="8">
         <v>66.59</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E36" s="16">
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B37" s="6">
         <v>79.62</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C37" s="7">
         <v>51.33</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D37" s="6">
         <v>65.66</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E37" s="14">
         <v>-0.52</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B38" s="8">
         <v>85.81</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C38" s="4">
         <v>51.17</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D38" s="2">
         <v>80.8</v>
       </c>
-      <c r="E36" s="18">
+      <c r="E38" s="17">
         <v>-2.67</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B39" s="3">
         <v>82.4</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C39" s="5">
         <v>50.43</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D39" s="3">
         <v>73.37</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E39" s="18">
         <v>-2.61</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="39" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="45">
+        <v>60.16</v>
+      </c>
+      <c r="C40" s="46">
+        <v>-0.7</v>
+      </c>
+      <c r="D40" s="45">
+        <v>54.98</v>
+      </c>
+      <c r="E40" s="47">
+        <v>16.78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="53">
+        <v>82.87</v>
+      </c>
+      <c r="C41" s="54">
+        <v>77.53</v>
+      </c>
+      <c r="D41" s="53">
+        <v>62.46</v>
+      </c>
+      <c r="E41" s="55">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="44"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="9">
+      <c r="B43" s="8">
         <v>47.8</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C43" s="9">
         <v>-36.18</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D43" s="8">
         <v>55.82</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E43" s="16">
         <v>1.81</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B44" s="3">
         <v>78.31</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C44" s="5">
         <v>42.4</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D44" s="3">
         <v>57.74</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E44" s="18">
         <v>-6.65</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="18"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="19"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
       <c r="B45" s="2"/>
       <c r="C45" s="4"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="34"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="32"/>
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="18"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="20"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="18"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="19"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="29"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A42:E42"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7FBB0C-6C60-4656-AFAB-EE7F644068C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A177123C-B348-4297-B870-02F672D0700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="5004" windowWidth="12528" windowHeight="8964" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
+    <workbookView xWindow="16680" yWindow="5004" windowWidth="12528" windowHeight="8964" activeTab="1" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Pooled Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Patient-Wise Data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
   <si>
     <t>Dataset</t>
   </si>
@@ -548,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -653,6 +654,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C576D77C-DF2D-4C7F-B9E2-C19C9DB20FAA}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1760,4 +1766,260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902475E-F03F-46B2-A4EB-323F27AD8880}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="58"/>
+    </row>
+    <row r="10" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="44"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="47"/>
+    </row>
+    <row r="17" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="55"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="44"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="29"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A18:E18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A177123C-B348-4297-B870-02F672D0700B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CC8132-BE29-4C5F-93F4-B16931AF79AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="5004" windowWidth="12528" windowHeight="8964" activeTab="1" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
   </bookViews>
   <sheets>
     <sheet name="Pooled Data" sheetId="1" r:id="rId1"/>
     <sheet name="Patient-Wise Data" sheetId="2" r:id="rId2"/>
+    <sheet name="Feature Selection" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
   <si>
     <t>Dataset</t>
   </si>
@@ -124,14 +125,98 @@
     <t>P1(REM ONLY)</t>
   </si>
   <si>
+    <t>NREM</t>
+  </si>
+  <si>
     <t>P1(NREM ONLY)</t>
+  </si>
+  <si>
+    <t>P1:P12(REM ONLY)</t>
+  </si>
+  <si>
+    <t>P1:P12(NREM ONLY)</t>
+  </si>
+  <si>
+    <t>Band</t>
+  </si>
+  <si>
+    <t>Channel</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>EEG Channels</t>
+  </si>
+  <si>
+    <t>Sleep Stage</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>F4-M1</t>
+  </si>
+  <si>
+    <t>F3-M2</t>
+  </si>
+  <si>
+    <t>C4-M1</t>
+  </si>
+  <si>
+    <t>C3-M2</t>
+  </si>
+  <si>
+    <t>O2-M1</t>
+  </si>
+  <si>
+    <t>01-M2</t>
+  </si>
+  <si>
+    <t>Delta</t>
+  </si>
+  <si>
+    <t>Theta</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>REM</t>
+  </si>
+  <si>
+    <t>WAKE</t>
+  </si>
+  <si>
+    <t>Patient Datasets</t>
+  </si>
+  <si>
+    <t>&lt;Feature Selection Strat&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +254,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,8 +308,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -537,19 +644,352 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -637,7 +1077,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -659,6 +1099,135 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,7 +1545,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1324,7 +1893,7 @@
     </row>
     <row r="21" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="49">
         <v>84.6</v>
@@ -1656,7 +2225,7 @@
     </row>
     <row r="41" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B41" s="53">
         <v>82.87</v>
@@ -1772,13 +2341,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902475E-F03F-46B2-A4EB-323F27AD8880}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.77734375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
@@ -1860,7 +2429,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
@@ -1869,7 +2438,7 @@
     </row>
     <row r="9" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="50"/>
@@ -1932,7 +2501,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="45"/>
       <c r="C16" s="46"/>
@@ -1941,7 +2510,7 @@
     </row>
     <row r="17" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B17" s="53"/>
       <c r="C17" s="54"/>
@@ -2022,4 +2591,435 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234B6861-C9E6-46F0-8BAF-B7D8E2572558}">
+  <dimension ref="A1:E40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" style="66" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="66" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="66" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="89" customFormat="1" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="88"/>
+      <c r="E1" s="65"/>
+    </row>
+    <row r="2" spans="1:5" s="93" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="92" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="92"/>
+      <c r="E2" s="91"/>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="61"/>
+      <c r="B5" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="61"/>
+      <c r="B6" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="61"/>
+      <c r="B7" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="61"/>
+      <c r="B8" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="77"/>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="63"/>
+      <c r="B9" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="79"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="81"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="61"/>
+      <c r="B12" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="61"/>
+      <c r="B13" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="61"/>
+      <c r="B14" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="63"/>
+      <c r="B15" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="71"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="61"/>
+      <c r="B17" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="61"/>
+      <c r="B18" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="61"/>
+      <c r="B19" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="61"/>
+      <c r="B20" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="63"/>
+      <c r="B21" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="81"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="61"/>
+      <c r="B23" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="61"/>
+      <c r="B24" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="61"/>
+      <c r="B25" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="61"/>
+      <c r="B26" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="63"/>
+      <c r="B27" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="79"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="81"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="61"/>
+      <c r="B29" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="61"/>
+      <c r="B30" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="61"/>
+      <c r="B31" s="74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="61"/>
+      <c r="B32" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="61"/>
+      <c r="B33" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="81"/>
+    </row>
+    <row r="34" spans="1:5" s="93" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="90" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="94"/>
+      <c r="C34" s="90" t="str">
+        <f>C2</f>
+        <v>&lt;Feature Selection Strat&gt;</v>
+      </c>
+      <c r="D34" s="92"/>
+      <c r="E34" s="91"/>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="96" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="69" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="62" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="73"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="61"/>
+      <c r="B37" s="74" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="75"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="77"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="63"/>
+      <c r="B38" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
+      <c r="E38" s="81"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="86"/>
+      <c r="B39" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="101"/>
+      <c r="D39" s="102"/>
+      <c r="E39" s="103"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="87"/>
+      <c r="B40" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="98"/>
+      <c r="D40" s="99"/>
+      <c r="E40" s="100"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CC8132-BE29-4C5F-93F4-B16931AF79AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809C77B-C6B9-4F16-AD84-6D66F973DA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
   </bookViews>
@@ -660,6 +660,17 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -680,15 +691,6 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -723,17 +725,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -765,6 +756,17 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -936,23 +938,25 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -962,12 +966,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -977,19 +979,17 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1077,7 +1077,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1102,9 +1102,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1117,15 +1126,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,34 +1204,34 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2595,423 +2601,430 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234B6861-C9E6-46F0-8BAF-B7D8E2572558}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="66" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="66" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="66" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="66"/>
+    <col min="1" max="1" width="13.44140625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="69" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="69" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="89" customFormat="1" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:5" s="91" customFormat="1" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="88"/>
-      <c r="E1" s="65"/>
-    </row>
-    <row r="2" spans="1:5" s="93" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90" t="s">
+      <c r="D1" s="90"/>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:5" s="95" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="92" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="94" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="92"/>
-      <c r="E2" s="91"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="93"/>
     </row>
     <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="71" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="61"/>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="61"/>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="75"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="61"/>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="75"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
     </row>
     <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="63"/>
-      <c r="B9" s="78" t="s">
+      <c r="A9" s="66"/>
+      <c r="B9" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="75"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="61"/>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="75"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78"/>
+      <c r="E11" s="79"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="61"/>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="79"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="61"/>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="79"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="61"/>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="75"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="63"/>
-      <c r="B15" s="78" t="s">
+      <c r="A15" s="66"/>
+      <c r="B15" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="83"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="75"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="61"/>
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="61"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="61"/>
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="61"/>
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
     </row>
     <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="63"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="83"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="71"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="75"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="61"/>
-      <c r="B23" s="74" t="s">
+      <c r="B23" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="79"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="61"/>
-      <c r="B24" s="74" t="s">
+      <c r="B24" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="79"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="61"/>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="61"/>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
     </row>
     <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="63"/>
-      <c r="B27" s="78" t="s">
+      <c r="A27" s="66"/>
+      <c r="B27" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="83"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="82" t="s">
+      <c r="B28" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="87"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="61"/>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="61"/>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="78"/>
+      <c r="E30" s="79"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="61"/>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="79"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="61"/>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="79"/>
     </row>
     <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="61"/>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-    </row>
-    <row r="34" spans="1:5" s="93" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="90" t="s">
+      <c r="C33" s="99"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="101"/>
+    </row>
+    <row r="34" spans="1:5" s="95" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="102"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="104"/>
+    </row>
+    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="94"/>
-      <c r="C34" s="90" t="str">
+      <c r="B35" s="93"/>
+      <c r="C35" s="92" t="str">
         <f>C2</f>
         <v>&lt;Feature Selection Strat&gt;</v>
       </c>
-      <c r="D34" s="92"/>
-      <c r="E34" s="91"/>
-    </row>
-    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="67" t="s">
+      <c r="D35" s="94"/>
+      <c r="E35" s="93"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B36" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="96" t="s">
+      <c r="C36" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D36" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E36" s="71" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="62" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B36" s="70" t="s">
+      <c r="B37" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="73"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="74" t="s">
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="E37" s="75"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="62"/>
+      <c r="B38" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="75"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="63"/>
-      <c r="B38" s="78" t="s">
+      <c r="C38" s="77"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="63"/>
+      <c r="B39" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="81"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="86"/>
-      <c r="B39" s="67" t="s">
+      <c r="C39" s="81"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="83"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="88"/>
+      <c r="B40" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="101"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="103"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="87"/>
-      <c r="B40" s="97" t="s">
+      <c r="C40" s="85"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="87"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="89"/>
+      <c r="B41" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="C40" s="98"/>
-      <c r="D40" s="99"/>
-      <c r="E40" s="100"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A36:A38"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A37:A39"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A15"/>

--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8809C77B-C6B9-4F16-AD84-6D66F973DA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EED7E31-621C-4F31-9A7D-E8BF893A91B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
+    <workbookView xWindow="15828" yWindow="6384" windowWidth="12528" windowHeight="8964" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
   </bookViews>
   <sheets>
     <sheet name="Pooled Data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
   <si>
     <t>Dataset</t>
   </si>
@@ -210,6 +210,12 @@
   </si>
   <si>
     <t>&lt;Feature Selection Strat&gt;</t>
+  </si>
+  <si>
+    <t>P2(REM ONLY)</t>
+  </si>
+  <si>
+    <t>P2(NREM ONLY)</t>
   </si>
 </sst>
 </file>
@@ -989,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1233,6 +1239,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1548,10 +1575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C576D77C-DF2D-4C7F-B9E2-C19C9DB20FAA}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1897,425 +1924,465 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="57" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="49">
+      <c r="B21" s="107">
         <v>84.6</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21" s="108">
         <v>78.91</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="107">
         <v>63.32</v>
       </c>
-      <c r="E21" s="51" t="s">
+      <c r="E21" s="109" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42" t="s">
+    <row r="22" spans="1:5" s="114" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="110" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="111">
+        <v>83.07</v>
+      </c>
+      <c r="C22" s="112">
+        <v>16.29</v>
+      </c>
+      <c r="D22" s="111">
+        <v>81.48</v>
+      </c>
+      <c r="E22" s="113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="49">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="C23" s="50">
+        <v>57.02</v>
+      </c>
+      <c r="D23" s="49">
+        <v>57.93</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="44"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="21" t="s">
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="44"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B25" s="22">
         <v>78.31</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C25" s="23">
         <v>42.33</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D25" s="22">
         <v>57.06</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E25" s="24">
         <v>3.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="8">
-        <v>79.91</v>
-      </c>
-      <c r="C24" s="4">
-        <v>56.08</v>
-      </c>
-      <c r="D24" s="2">
-        <v>51.08</v>
-      </c>
-      <c r="E24" s="17">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="3">
-        <v>78.709999999999994</v>
-      </c>
-      <c r="C25" s="5">
-        <v>19.91</v>
-      </c>
-      <c r="D25" s="3">
-        <v>77.099999999999994</v>
-      </c>
-      <c r="E25" s="18">
-        <v>13.36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8">
+        <v>79.91</v>
+      </c>
+      <c r="C26" s="4">
+        <v>56.08</v>
+      </c>
+      <c r="D26" s="2">
+        <v>51.08</v>
+      </c>
+      <c r="E26" s="17">
         <v>11</v>
       </c>
-      <c r="B26" s="8">
-        <v>76.349999999999994</v>
-      </c>
-      <c r="C26" s="9">
-        <v>46.5</v>
-      </c>
-      <c r="D26" s="8">
-        <v>62.79</v>
-      </c>
-      <c r="E26" s="16">
-        <v>0.62</v>
-      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="6">
-        <v>83.37</v>
-      </c>
-      <c r="C27" s="7">
-        <v>14.19</v>
-      </c>
-      <c r="D27" s="6">
-        <v>83.37</v>
-      </c>
-      <c r="E27" s="14">
-        <v>-7.15</v>
+      <c r="A27" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="3">
+        <v>78.709999999999994</v>
+      </c>
+      <c r="C27" s="5">
+        <v>19.91</v>
+      </c>
+      <c r="D27" s="3">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="E27" s="18">
+        <v>13.36</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B28" s="8">
-        <v>84.27</v>
+        <v>76.349999999999994</v>
       </c>
       <c r="C28" s="9">
-        <v>54.15</v>
+        <v>46.5</v>
       </c>
       <c r="D28" s="8">
-        <v>56.34</v>
+        <v>62.79</v>
       </c>
       <c r="E28" s="16">
-        <v>2.8</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>19</v>
+      <c r="A29" s="37" t="s">
+        <v>12</v>
       </c>
       <c r="B29" s="6">
-        <v>87.55</v>
+        <v>83.37</v>
       </c>
       <c r="C29" s="7">
-        <v>41.46</v>
+        <v>14.19</v>
       </c>
       <c r="D29" s="6">
-        <v>88.11</v>
+        <v>83.37</v>
       </c>
       <c r="E29" s="14">
-        <v>-2.72</v>
+        <v>-7.15</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30" s="8">
-        <v>91.82</v>
+        <v>84.27</v>
       </c>
       <c r="C30" s="9">
-        <v>39.42</v>
+        <v>54.15</v>
       </c>
       <c r="D30" s="8">
-        <v>91.6</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>2</v>
+        <v>56.34</v>
+      </c>
+      <c r="E30" s="16">
+        <v>2.8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
-        <v>21</v>
+      <c r="A31" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="B31" s="6">
-        <v>80.77</v>
+        <v>87.55</v>
       </c>
       <c r="C31" s="7">
-        <v>38.79</v>
+        <v>41.46</v>
       </c>
       <c r="D31" s="6">
-        <v>78.3</v>
+        <v>88.11</v>
       </c>
       <c r="E31" s="14">
-        <v>-6.48</v>
+        <v>-2.72</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B32" s="8">
-        <v>81.02</v>
+        <v>91.82</v>
       </c>
       <c r="C32" s="9">
-        <v>33.68</v>
+        <v>39.42</v>
       </c>
       <c r="D32" s="8">
-        <v>77.77</v>
-      </c>
-      <c r="E32" s="16">
-        <v>-3.06</v>
+        <v>91.6</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="56" t="s">
-        <v>23</v>
+      <c r="A33" s="37" t="s">
+        <v>21</v>
       </c>
       <c r="B33" s="6">
-        <v>90.45</v>
+        <v>80.77</v>
       </c>
       <c r="C33" s="7">
-        <v>79</v>
+        <v>38.79</v>
       </c>
       <c r="D33" s="6">
-        <v>61.08</v>
+        <v>78.3</v>
       </c>
       <c r="E33" s="14">
-        <v>2.98</v>
+        <v>-6.48</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34" s="8">
-        <v>86.45</v>
+        <v>81.02</v>
       </c>
       <c r="C34" s="9">
-        <v>35.29</v>
+        <v>33.68</v>
       </c>
       <c r="D34" s="8">
-        <v>85.13</v>
+        <v>77.77</v>
       </c>
       <c r="E34" s="16">
-        <v>10.85</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>13</v>
+      <c r="A35" s="56" t="s">
+        <v>23</v>
       </c>
       <c r="B35" s="6">
-        <v>78.89</v>
+        <v>90.45</v>
       </c>
       <c r="C35" s="7">
-        <v>46.82</v>
+        <v>79</v>
       </c>
       <c r="D35" s="6">
-        <v>60.3</v>
+        <v>61.08</v>
       </c>
       <c r="E35" s="14">
-        <v>6.56</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B36" s="8">
-        <v>79.03</v>
+        <v>86.45</v>
       </c>
       <c r="C36" s="9">
-        <v>43.29</v>
+        <v>35.29</v>
       </c>
       <c r="D36" s="8">
-        <v>66.59</v>
+        <v>85.13</v>
       </c>
       <c r="E36" s="16">
-        <v>0.05</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B37" s="6">
-        <v>79.62</v>
+        <v>78.89</v>
       </c>
       <c r="C37" s="7">
-        <v>51.33</v>
+        <v>46.82</v>
       </c>
       <c r="D37" s="6">
-        <v>65.66</v>
+        <v>60.3</v>
       </c>
       <c r="E37" s="14">
-        <v>-0.52</v>
+        <v>6.56</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="8">
+        <v>79.03</v>
+      </c>
+      <c r="C38" s="9">
+        <v>43.29</v>
+      </c>
+      <c r="D38" s="8">
+        <v>66.59</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="6">
+        <v>79.62</v>
+      </c>
+      <c r="C39" s="7">
+        <v>51.33</v>
+      </c>
+      <c r="D39" s="6">
+        <v>65.66</v>
+      </c>
+      <c r="E39" s="14">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="8">
+      <c r="B40" s="8">
         <v>85.81</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C40" s="4">
         <v>51.17</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D40" s="2">
         <v>80.8</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E40" s="17">
         <v>-2.67</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B41" s="3">
         <v>82.4</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C41" s="5">
         <v>50.43</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D41" s="3">
         <v>73.37</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E41" s="18">
         <v>-2.61</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B42" s="45">
         <v>60.16</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C42" s="46">
         <v>-0.7</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D42" s="45">
         <v>54.98</v>
       </c>
-      <c r="E40" s="47">
+      <c r="E42" s="47">
         <v>16.78</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="57" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="53">
+      <c r="B43" s="115">
         <v>82.87</v>
       </c>
-      <c r="C41" s="54">
+      <c r="C43" s="116">
         <v>77.53</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D43" s="115">
         <v>62.46</v>
       </c>
-      <c r="E41" s="55">
+      <c r="E43" s="117">
         <v>5.99</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="42" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" s="45">
+        <v>89.42</v>
+      </c>
+      <c r="C44" s="46">
+        <v>16.29</v>
+      </c>
+      <c r="D44" s="45">
+        <v>80.95</v>
+      </c>
+      <c r="E44" s="118" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="106" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="53">
+        <v>78.959999999999994</v>
+      </c>
+      <c r="C45" s="54">
+        <v>63.33</v>
+      </c>
+      <c r="D45" s="53">
+        <v>53.2</v>
+      </c>
+      <c r="E45" s="55">
+        <v>12.46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="43"/>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="44"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="44"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="8">
+      <c r="B47" s="8">
         <v>47.8</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C47" s="9">
         <v>-36.18</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D47" s="8">
         <v>55.82</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E47" s="16">
         <v>1.81</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="20" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B48" s="3">
         <v>78.31</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C48" s="5">
         <v>42.4</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D48" s="3">
         <v>57.74</v>
       </c>
-      <c r="E44" s="18">
+      <c r="E48" s="18">
         <v>-6.65</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="17"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="17"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="18"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
@@ -2324,18 +2391,46 @@
       <c r="D49" s="2"/>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="29"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="27"/>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="20"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="18"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="19"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="18"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="19"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="29"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A46:E46"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2603,7 +2698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234B6861-C9E6-46F0-8BAF-B7D8E2572558}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>

--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EED7E31-621C-4F31-9A7D-E8BF893A91B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984ABC60-BA01-47B5-B4DB-505F51C2E1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15828" yWindow="6384" windowWidth="12528" windowHeight="8964" xr2:uid="{8C9CCCCA-55C1-41A4-97D4-EB56A236B105}"/>
+    <workbookView xWindow="7920" yWindow="1725" windowWidth="16965" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pooled Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Patient-Wise Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Feature Selection" sheetId="3" r:id="rId3"/>
+    <sheet name="Patient-Wise Data Copy" sheetId="6" r:id="rId1"/>
+    <sheet name="Pooled Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Patient-Wise Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Feature Selection" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="61">
   <si>
     <t>Dataset</t>
   </si>
@@ -216,6 +217,9 @@
   </si>
   <si>
     <t>P2(NREM ONLY)</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -277,7 +281,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,31 +296,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,160 +1051,96 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1228,39 +1156,99 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1574,25 +1562,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB253B6-1476-4929-9617-A4FACB0B7BD2}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="16"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="18"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="16"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="46"/>
+    </row>
+    <row r="10" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="39"/>
+    </row>
+    <row r="17" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+    </row>
+    <row r="18" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="17"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A18:E18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C576D77C-DF2D-4C7F-B9E2-C19C9DB20FAA}">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1609,16 +1855,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -1631,11 +1877,11 @@
       <c r="D3" s="11">
         <v>62.03</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="104" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1652,7 +1898,7 @@
         <v>-5.95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -1665,11 +1911,11 @@
       <c r="D5" s="8">
         <v>78.09</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
@@ -1682,28 +1928,28 @@
       <c r="D6" s="6">
         <v>65.77</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="116" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="8">
         <v>84.14</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="8">
         <v>84.14</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
@@ -1716,11 +1962,11 @@
       <c r="D8" s="6">
         <v>61.58</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="116" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
@@ -1733,11 +1979,11 @@
       <c r="D9" s="8">
         <v>88.38</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
@@ -1750,28 +1996,28 @@
       <c r="D10" s="6">
         <v>91.93</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="116" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="8">
         <v>79.09</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="8">
         <v>79.09</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
@@ -1784,12 +2030,12 @@
       <c r="D12" s="6">
         <v>78.27</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="116" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="8">
@@ -1801,11 +2047,11 @@
       <c r="D13" s="8">
         <v>64.86</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
@@ -1818,11 +2064,11 @@
       <c r="D14" s="6">
         <v>85.79</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="116" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
@@ -1835,11 +2081,11 @@
       <c r="D15" s="8">
         <v>63.61</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
@@ -1852,11 +2098,11 @@
       <c r="D16" s="3">
         <v>68.23</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="115" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
@@ -1869,11 +2115,11 @@
       <c r="D17" s="8">
         <v>66.989999999999995</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
@@ -1886,11 +2132,11 @@
       <c r="D18" s="6">
         <v>81.12</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="116" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
@@ -1903,88 +2149,88 @@
       <c r="D19" s="8">
         <v>73.83</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="48" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="113">
         <v>58.96</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="114">
         <v>13.8</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="113">
         <v>61.75</v>
       </c>
-      <c r="E20" s="18">
+      <c r="E20" s="115">
         <v>4.88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="106" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="107">
+      <c r="B21" s="82">
         <v>84.6</v>
       </c>
-      <c r="C21" s="108">
+      <c r="C21" s="83">
         <v>78.91</v>
       </c>
-      <c r="D21" s="107">
+      <c r="D21" s="82">
         <v>63.32</v>
       </c>
-      <c r="E21" s="109" t="s">
+      <c r="E21" s="106" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="114" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="110" t="s">
+    <row r="22" spans="1:5" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="111">
+      <c r="B22" s="109">
         <v>83.07</v>
       </c>
-      <c r="C22" s="112">
+      <c r="C22" s="110">
         <v>16.29</v>
       </c>
-      <c r="D22" s="111">
+      <c r="D22" s="109">
         <v>81.48</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="111" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="57" t="s">
+    <row r="23" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="49">
+      <c r="B23" s="40">
         <v>79.569999999999993</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23" s="41">
         <v>57.02</v>
       </c>
-      <c r="D23" s="49">
+      <c r="D23" s="40">
         <v>57.93</v>
       </c>
-      <c r="E23" s="51" t="s">
+      <c r="E23" s="46" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="42" t="s">
+    <row r="24" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="44"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
@@ -2001,7 +2247,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>6</v>
       </c>
@@ -2018,7 +2264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
@@ -2035,7 +2281,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>11</v>
       </c>
@@ -2052,8 +2298,8 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="117" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="6">
@@ -2069,7 +2315,7 @@
         <v>-7.15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>18</v>
       </c>
@@ -2086,7 +2332,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>19</v>
       </c>
@@ -2103,7 +2349,7 @@
         <v>-2.72</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>20</v>
       </c>
@@ -2116,12 +2362,12 @@
       <c r="D32" s="8">
         <v>91.6</v>
       </c>
-      <c r="E32" s="38" t="s">
+      <c r="E32" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="37" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="117" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="6">
@@ -2137,7 +2383,7 @@
         <v>-6.48</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>22</v>
       </c>
@@ -2154,8 +2400,8 @@
         <v>-3.06</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="56" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="117" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="6">
@@ -2171,7 +2417,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>24</v>
       </c>
@@ -2188,7 +2434,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>13</v>
       </c>
@@ -2205,7 +2451,7 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>14</v>
       </c>
@@ -2222,7 +2468,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>25</v>
       </c>
@@ -2239,7 +2485,7 @@
         <v>-0.52</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>26</v>
       </c>
@@ -2256,7 +2502,7 @@
         <v>-2.67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>27</v>
       </c>
@@ -2273,84 +2519,84 @@
         <v>-2.61</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="48" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="45">
+      <c r="B42" s="37">
         <v>60.16</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="38">
         <v>-0.7</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D42" s="37">
         <v>54.98</v>
       </c>
-      <c r="E42" s="47">
+      <c r="E42" s="39">
         <v>16.78</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="106" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="118" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="115">
+      <c r="B43" s="85">
         <v>82.87</v>
       </c>
-      <c r="C43" s="116">
+      <c r="C43" s="86">
         <v>77.53</v>
       </c>
-      <c r="D43" s="115">
+      <c r="D43" s="85">
         <v>62.46</v>
       </c>
-      <c r="E43" s="117">
+      <c r="E43" s="87">
         <v>5.99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="37" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="37">
         <v>89.42</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="38">
         <v>16.29</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="37">
         <v>80.95</v>
       </c>
-      <c r="E44" s="118" t="s">
+      <c r="E44" s="39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="106" t="s">
+    <row r="45" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="118" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="53">
+      <c r="B45" s="43">
         <v>78.959999999999994</v>
       </c>
-      <c r="C45" s="54">
+      <c r="C45" s="44">
         <v>63.33</v>
       </c>
-      <c r="D45" s="53">
+      <c r="D45" s="43">
         <v>53.2</v>
       </c>
-      <c r="E45" s="55">
+      <c r="E45" s="45">
         <v>12.46</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="42" t="s">
+    <row r="46" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="44"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="91"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
@@ -2367,7 +2613,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>9</v>
       </c>
@@ -2384,42 +2630,42 @@
         <v>-6.65</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4"/>
       <c r="D49" s="2"/>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="3"/>
       <c r="C50" s="5"/>
       <c r="D50" s="3"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="2"/>
       <c r="C51" s="4"/>
       <c r="D51" s="2"/>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="3"/>
       <c r="C52" s="5"/>
       <c r="D52" s="3"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="2"/>
       <c r="C53" s="4"/>
       <c r="D53" s="2"/>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
@@ -2438,26 +2684,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902475E-F03F-46B2-A4EB-323F27AD8880}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="3" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -2474,209 +2721,321 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="91"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>77.255054432348089</v>
+      </c>
+      <c r="C3" s="9">
+        <v>51.390269177523621</v>
+      </c>
+      <c r="D3" s="8">
+        <v>63.646967340590763</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="18"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="36">
+        <v>75.464601769911198</v>
+      </c>
+      <c r="C4" s="5">
+        <v>35.917347136114266</v>
+      </c>
+      <c r="D4" s="3">
+        <v>68.230088495575075</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>75.808189655172086</v>
+      </c>
+      <c r="C5" s="9">
+        <v>39.590349478347285</v>
+      </c>
+      <c r="D5" s="8">
+        <v>67.474856321838914</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="6">
+        <v>83.668389814282548</v>
+      </c>
+      <c r="C6" s="7">
+        <v>30.684077217381244</v>
+      </c>
+      <c r="D6" s="6">
+        <v>81.543174420830439</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="8">
+        <v>78.229842446709455</v>
+      </c>
+      <c r="C7" s="9">
+        <v>36.595342692003591</v>
+      </c>
+      <c r="D7" s="8">
+        <v>73.716404077849617</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="60" t="s">
+      <c r="B8" s="3">
+        <v>79.831578947368143</v>
+      </c>
+      <c r="C8" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="3">
+        <v>79.831578947368158</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="58"/>
-    </row>
-    <row r="10" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="42" t="s">
+      <c r="B9" s="40">
+        <v>80.336757990867895</v>
+      </c>
+      <c r="C9" s="41">
+        <v>49.744201538047975</v>
+      </c>
+      <c r="D9" s="40">
+        <v>71.48972602739741</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="44"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="91"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="6">
+        <v>78.227060653187962</v>
+      </c>
+      <c r="C11" s="7">
+        <v>54.68291800562637</v>
+      </c>
+      <c r="D11" s="6">
+        <v>60.031104199066753</v>
+      </c>
+      <c r="E11" s="14">
+        <v>-1.0576287972076925</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <v>78.606194690265013</v>
+      </c>
+      <c r="C12" s="9">
+        <v>45.794925860942158</v>
+      </c>
+      <c r="D12" s="8">
+        <v>65.99557522123844</v>
+      </c>
+      <c r="E12" s="16">
+        <v>-2.1575924583361288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <v>79.418103448275289</v>
+      </c>
+      <c r="C13" s="7">
+        <v>51.801301633854926</v>
+      </c>
+      <c r="D13" s="6">
+        <v>65.499281609194782</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.63298437987879608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="8">
+        <v>86.291403408003546</v>
+      </c>
+      <c r="C14" s="4">
+        <v>47.14425141676184</v>
+      </c>
+      <c r="D14" s="2">
+        <v>81.217690982195023</v>
+      </c>
+      <c r="E14" s="17">
+        <v>-3.1527631431080132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>82.669138090824376</v>
+      </c>
+      <c r="C15" s="5">
+        <v>50.021651122223368</v>
+      </c>
+      <c r="D15" s="3">
+        <v>73.049119555143122</v>
+      </c>
+      <c r="E15" s="18">
+        <v>-0.21417335292714737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="47"/>
-    </row>
-    <row r="17" spans="1:5" s="52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="59" t="s">
+      <c r="B16" s="37">
+        <v>80.757894736842402</v>
+      </c>
+      <c r="C16" s="38">
+        <v>22.582445150391596</v>
+      </c>
+      <c r="D16" s="37">
+        <v>79.578947368421382</v>
+      </c>
+      <c r="E16" s="39">
+        <v>-4.3882060142790014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="55"/>
-    </row>
-    <row r="18" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="42" t="s">
+      <c r="B17" s="43">
+        <v>83.675799086758431</v>
+      </c>
+      <c r="C17" s="44">
+        <v>55.824538901903111</v>
+      </c>
+      <c r="D17" s="43">
+        <v>70.605022831050903</v>
+      </c>
+      <c r="E17" s="45">
+        <v>1.5208522564238027</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
       <c r="D24" s="3"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
@@ -2694,423 +3053,423 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234B6861-C9E6-46F0-8BAF-B7D8E2572558}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" style="69" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="69" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="69" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="69"/>
+    <col min="1" max="1" width="13.42578125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="49" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="49" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="91" customFormat="1" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:5" s="70" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="67" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="68"/>
-    </row>
-    <row r="2" spans="1:5" s="95" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="92" t="s">
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+    </row>
+    <row r="2" spans="1:5" s="71" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="94" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="96" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="93"/>
-    </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="70" t="s">
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="75"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="76" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="102"/>
+      <c r="B5" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="76" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="59"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="102"/>
+      <c r="B6" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="79"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="76" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="102"/>
+      <c r="B7" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="79"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="76" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="102"/>
+      <c r="B8" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="79"/>
-    </row>
-    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="66"/>
-      <c r="B9" s="80" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="103"/>
+      <c r="B9" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="83"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="75"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="76" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="102"/>
+      <c r="B11" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="79"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="76" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="102"/>
+      <c r="B12" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="79"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="76" t="s">
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="102"/>
+      <c r="B13" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="79"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="76" t="s">
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="102"/>
+      <c r="B14" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="79"/>
-    </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
-      <c r="B15" s="80" t="s">
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="103"/>
+      <c r="B15" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="83"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="63"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="61"/>
-      <c r="B17" s="76" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="102"/>
+      <c r="B17" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="79"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="76" t="s">
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="102"/>
+      <c r="B18" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="76" t="s">
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="102"/>
+      <c r="B19" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="76" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="102"/>
+      <c r="B20" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="79"/>
-    </row>
-    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="66"/>
-      <c r="B21" s="80" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="103"/>
+      <c r="B21" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="81"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="83"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="72" t="s">
+      <c r="B22" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="75"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
-      <c r="B23" s="76" t="s">
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="102"/>
+      <c r="B23" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-      <c r="B24" s="76" t="s">
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="59"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="102"/>
+      <c r="B24" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="79"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="76" t="s">
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="59"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="102"/>
+      <c r="B25" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="76" t="s">
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="102"/>
+      <c r="B26" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-    </row>
-    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="66"/>
-      <c r="B27" s="80" t="s">
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="59"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="103"/>
+      <c r="B27" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="83"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="61" t="s">
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="76" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="102"/>
+      <c r="B29" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="77"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="79"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
-      <c r="B30" s="76" t="s">
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="59"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="102"/>
+      <c r="B30" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="79"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
-      <c r="B31" s="76" t="s">
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="102"/>
+      <c r="B31" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="79"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="76" t="s">
+      <c r="C31" s="57"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="102"/>
+      <c r="B32" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="61"/>
-      <c r="B33" s="98" t="s">
+      <c r="C32" s="57"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="102"/>
+      <c r="B33" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="101"/>
-    </row>
-    <row r="34" spans="1:5" s="95" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="102"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="104"/>
-    </row>
-    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="92" t="s">
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+    </row>
+    <row r="34" spans="1:5" s="71" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="78"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="80"/>
+    </row>
+    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="92" t="str">
+      <c r="B35" s="97"/>
+      <c r="C35" s="95" t="str">
         <f>C2</f>
         <v>&lt;Feature Selection Strat&gt;</v>
       </c>
-      <c r="D35" s="94"/>
-      <c r="E35" s="93"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="70" t="s">
+      <c r="D35" s="96"/>
+      <c r="E35" s="97"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="96" t="s">
+      <c r="B36" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="105" t="s">
+      <c r="C36" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="97" t="s">
+      <c r="D36" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="71" t="s">
+      <c r="E36" s="51" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="64" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B37" s="72" t="s">
+      <c r="B37" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="74"/>
-      <c r="E37" s="75"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="76" t="s">
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="55"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="99"/>
+      <c r="B38" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="79"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="63"/>
-      <c r="B39" s="80" t="s">
+      <c r="C38" s="57"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="100"/>
+      <c r="B39" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
-      <c r="E39" s="83"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="88"/>
-      <c r="B40" s="84" t="s">
+      <c r="C39" s="61"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="68"/>
+      <c r="B40" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="85"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="87"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="89"/>
-      <c r="B41" s="80" t="s">
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="67"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="69"/>
+      <c r="B41" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="81"/>
-      <c r="D41" s="82"/>
-      <c r="E41" s="83"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984ABC60-BA01-47B5-B4DB-505F51C2E1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3A7158-868C-4FA4-9517-59435650415B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1725" windowWidth="16965" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="1725" windowWidth="16965" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Patient-Wise Data Copy" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="61">
   <si>
     <t>Dataset</t>
   </si>
@@ -308,7 +308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1179,51 +1179,6 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1249,6 +1204,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1563,11 +1563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB253B6-1476-4929-9617-A4FACB0B7BD2}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,13 +1599,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -1634,7 +1634,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
@@ -1643,175 +1643,121 @@
       <c r="D6" s="6"/>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="16"/>
+    <row r="7" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="106"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="18"/>
-    </row>
-    <row r="9" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="46"/>
-    </row>
-    <row r="10" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="16"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="106"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="17"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="18"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="39"/>
-    </row>
-    <row r="17" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="45"/>
-    </row>
-    <row r="18" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="18"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="17"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="27"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="17"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1822,7 +1768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C576D77C-DF2D-4C7F-B9E2-C19C9DB20FAA}">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
@@ -1856,13 +1802,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1877,7 +1823,7 @@
       <c r="D3" s="11">
         <v>62.03</v>
       </c>
-      <c r="E3" s="104" t="s">
+      <c r="E3" s="89" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1928,7 +1874,7 @@
       <c r="D6" s="6">
         <v>65.77</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="101" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1962,7 +1908,7 @@
       <c r="D8" s="6">
         <v>61.58</v>
       </c>
-      <c r="E8" s="116" t="s">
+      <c r="E8" s="101" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1996,7 +1942,7 @@
       <c r="D10" s="6">
         <v>91.93</v>
       </c>
-      <c r="E10" s="116" t="s">
+      <c r="E10" s="101" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2030,7 +1976,7 @@
       <c r="D12" s="6">
         <v>78.27</v>
       </c>
-      <c r="E12" s="116" t="s">
+      <c r="E12" s="101" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2064,7 +2010,7 @@
       <c r="D14" s="6">
         <v>85.79</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="101" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2098,7 +2044,7 @@
       <c r="D16" s="3">
         <v>68.23</v>
       </c>
-      <c r="E16" s="115" t="s">
+      <c r="E16" s="100" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2132,7 +2078,7 @@
       <c r="D18" s="6">
         <v>81.12</v>
       </c>
-      <c r="E18" s="116" t="s">
+      <c r="E18" s="101" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2154,24 +2100,24 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="113">
+      <c r="B20" s="98">
         <v>58.96</v>
       </c>
-      <c r="C20" s="114">
+      <c r="C20" s="99">
         <v>13.8</v>
       </c>
-      <c r="D20" s="113">
+      <c r="D20" s="98">
         <v>61.75</v>
       </c>
-      <c r="E20" s="115">
+      <c r="E20" s="100">
         <v>4.88</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="105" t="s">
+      <c r="A21" s="90" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="82">
@@ -2183,29 +2129,29 @@
       <c r="D21" s="82">
         <v>63.32</v>
       </c>
-      <c r="E21" s="106" t="s">
+      <c r="E21" s="91" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="109">
+      <c r="B22" s="94">
         <v>83.07</v>
       </c>
-      <c r="C22" s="110">
+      <c r="C22" s="95">
         <v>16.29</v>
       </c>
-      <c r="D22" s="109">
+      <c r="D22" s="94">
         <v>81.48</v>
       </c>
-      <c r="E22" s="111" t="s">
+      <c r="E22" s="96" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="92" t="s">
         <v>59</v>
       </c>
       <c r="B23" s="40">
@@ -2222,13 +2168,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89" t="s">
+      <c r="A24" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="106"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -2299,7 +2245,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="117" t="s">
+      <c r="A29" s="102" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="6">
@@ -2367,7 +2313,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="117" t="s">
+      <c r="A33" s="102" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="6">
@@ -2401,7 +2347,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="117" t="s">
+      <c r="A35" s="102" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="6">
@@ -2537,7 +2483,7 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="118" t="s">
+      <c r="A43" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="85">
@@ -2571,7 +2517,7 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="103" t="s">
         <v>58</v>
       </c>
       <c r="B45" s="43">
@@ -2588,13 +2534,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="89" t="s">
+      <c r="A46" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="91"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="106"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
@@ -2722,13 +2668,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="91"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2850,13 +2796,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="91"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2978,13 +2924,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="91"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
@@ -3070,26 +3016,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="70" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="92" t="s">
+      <c r="B1" s="109"/>
+      <c r="C1" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="93"/>
-      <c r="E1" s="94"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="109"/>
     </row>
     <row r="2" spans="1:5" s="71" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="96" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
@@ -3109,7 +3055,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="116" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="52" t="s">
@@ -3120,7 +3066,7 @@
       <c r="E4" s="55"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="117"/>
       <c r="B5" s="56" t="s">
         <v>41</v>
       </c>
@@ -3129,7 +3075,7 @@
       <c r="E5" s="59"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="102"/>
+      <c r="A6" s="117"/>
       <c r="B6" s="56" t="s">
         <v>42</v>
       </c>
@@ -3138,7 +3084,7 @@
       <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="102"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="56" t="s">
         <v>43</v>
       </c>
@@ -3147,7 +3093,7 @@
       <c r="E7" s="59"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="102"/>
+      <c r="A8" s="117"/>
       <c r="B8" s="56" t="s">
         <v>44</v>
       </c>
@@ -3156,7 +3102,7 @@
       <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="103"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="60" t="s">
         <v>45</v>
       </c>
@@ -3165,7 +3111,7 @@
       <c r="E9" s="63"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="101" t="s">
+      <c r="A10" s="116" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="52" t="s">
@@ -3176,7 +3122,7 @@
       <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
+      <c r="A11" s="117"/>
       <c r="B11" s="56" t="s">
         <v>41</v>
       </c>
@@ -3185,7 +3131,7 @@
       <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
+      <c r="A12" s="117"/>
       <c r="B12" s="56" t="s">
         <v>42</v>
       </c>
@@ -3194,7 +3140,7 @@
       <c r="E12" s="59"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
+      <c r="A13" s="117"/>
       <c r="B13" s="56" t="s">
         <v>43</v>
       </c>
@@ -3203,7 +3149,7 @@
       <c r="E13" s="59"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
+      <c r="A14" s="117"/>
       <c r="B14" s="56" t="s">
         <v>44</v>
       </c>
@@ -3212,7 +3158,7 @@
       <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="103"/>
+      <c r="A15" s="118"/>
       <c r="B15" s="60" t="s">
         <v>45</v>
       </c>
@@ -3221,7 +3167,7 @@
       <c r="E15" s="63"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="101" t="s">
+      <c r="A16" s="116" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="52" t="s">
@@ -3232,7 +3178,7 @@
       <c r="E16" s="55"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
+      <c r="A17" s="117"/>
       <c r="B17" s="56" t="s">
         <v>41</v>
       </c>
@@ -3241,7 +3187,7 @@
       <c r="E17" s="59"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
+      <c r="A18" s="117"/>
       <c r="B18" s="56" t="s">
         <v>42</v>
       </c>
@@ -3250,7 +3196,7 @@
       <c r="E18" s="59"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
+      <c r="A19" s="117"/>
       <c r="B19" s="56" t="s">
         <v>43</v>
       </c>
@@ -3259,7 +3205,7 @@
       <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
+      <c r="A20" s="117"/>
       <c r="B20" s="56" t="s">
         <v>44</v>
       </c>
@@ -3268,7 +3214,7 @@
       <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="103"/>
+      <c r="A21" s="118"/>
       <c r="B21" s="60" t="s">
         <v>45</v>
       </c>
@@ -3277,7 +3223,7 @@
       <c r="E21" s="63"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="116" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="52" t="s">
@@ -3288,7 +3234,7 @@
       <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="102"/>
+      <c r="A23" s="117"/>
       <c r="B23" s="56" t="s">
         <v>41</v>
       </c>
@@ -3297,7 +3243,7 @@
       <c r="E23" s="59"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="102"/>
+      <c r="A24" s="117"/>
       <c r="B24" s="56" t="s">
         <v>42</v>
       </c>
@@ -3306,7 +3252,7 @@
       <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="102"/>
+      <c r="A25" s="117"/>
       <c r="B25" s="56" t="s">
         <v>43</v>
       </c>
@@ -3315,7 +3261,7 @@
       <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="102"/>
+      <c r="A26" s="117"/>
       <c r="B26" s="56" t="s">
         <v>44</v>
       </c>
@@ -3324,7 +3270,7 @@
       <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="103"/>
+      <c r="A27" s="118"/>
       <c r="B27" s="60" t="s">
         <v>45</v>
       </c>
@@ -3333,7 +3279,7 @@
       <c r="E27" s="63"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="117" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="64" t="s">
@@ -3344,7 +3290,7 @@
       <c r="E28" s="67"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="102"/>
+      <c r="A29" s="117"/>
       <c r="B29" s="56" t="s">
         <v>41</v>
       </c>
@@ -3353,7 +3299,7 @@
       <c r="E29" s="59"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="102"/>
+      <c r="A30" s="117"/>
       <c r="B30" s="56" t="s">
         <v>42</v>
       </c>
@@ -3362,7 +3308,7 @@
       <c r="E30" s="59"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
+      <c r="A31" s="117"/>
       <c r="B31" s="56" t="s">
         <v>43</v>
       </c>
@@ -3371,7 +3317,7 @@
       <c r="E31" s="59"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
+      <c r="A32" s="117"/>
       <c r="B32" s="56" t="s">
         <v>44</v>
       </c>
@@ -3380,7 +3326,7 @@
       <c r="E32" s="59"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="102"/>
+      <c r="A33" s="117"/>
       <c r="B33" s="74" t="s">
         <v>45</v>
       </c>
@@ -3396,16 +3342,16 @@
       <c r="E34" s="80"/>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="95" t="s">
+      <c r="A35" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="95" t="str">
+      <c r="B35" s="112"/>
+      <c r="C35" s="110" t="str">
         <f>C2</f>
         <v>&lt;Feature Selection Strat&gt;</v>
       </c>
-      <c r="D35" s="96"/>
-      <c r="E35" s="97"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="112"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
@@ -3425,7 +3371,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="113" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="52" t="s">
@@ -3436,7 +3382,7 @@
       <c r="E37" s="55"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="99"/>
+      <c r="A38" s="114"/>
       <c r="B38" s="56" t="s">
         <v>52</v>
       </c>
@@ -3445,7 +3391,7 @@
       <c r="E38" s="59"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="100"/>
+      <c r="A39" s="115"/>
       <c r="B39" s="60" t="s">
         <v>53</v>
       </c>

--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3A7158-868C-4FA4-9517-59435650415B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2944F3-F986-46E3-964D-C88615662251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7920" yWindow="1725" windowWidth="16965" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Patient-Wise Data Copy" sheetId="6" r:id="rId1"/>
+    <sheet name="General" sheetId="6" r:id="rId1"/>
     <sheet name="Pooled Data" sheetId="1" r:id="rId2"/>
     <sheet name="Patient-Wise Data" sheetId="2" r:id="rId3"/>
     <sheet name="Feature Selection" sheetId="3" r:id="rId4"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="68">
   <si>
     <t>Dataset</t>
   </si>
@@ -217,6 +217,27 @@
   </si>
   <si>
     <t>P2(NREM ONLY)</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>P1:P6 PWISE</t>
+  </si>
+  <si>
+    <t>P1:P6 POOL</t>
+  </si>
+  <si>
+    <t>P7:P12 POOL</t>
+  </si>
+  <si>
+    <t>P1:P12 POOL</t>
+  </si>
+  <si>
+    <t>P7:P12 PWISE</t>
+  </si>
+  <si>
+    <t>P1:P12 PWISE</t>
   </si>
   <si>
     <t>NaN</t>
@@ -281,7 +302,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +333,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="53">
     <border>
@@ -987,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1204,6 +1231,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,11 +1596,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB253B6-1476-4929-9617-A4FACB0B7BD2}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,138 +1632,242 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="B3" s="8">
+        <v>75.538793103447915</v>
+      </c>
+      <c r="C3" s="9">
+        <v>40.323875009464402</v>
+      </c>
+      <c r="D3" s="8">
+        <v>66.989942528735469</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="B4" s="36">
+        <v>83.228029867891706</v>
+      </c>
+      <c r="C4" s="5">
+        <v>29.25183505804727</v>
+      </c>
+      <c r="D4" s="3">
+        <v>81.121960559065471</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8">
+        <v>77.805578723010683</v>
+      </c>
+      <c r="C5" s="9">
+        <v>33.073009966036892</v>
+      </c>
+      <c r="D5" s="8">
+        <v>73.830043554814566</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="6">
+        <v>75.808189655172086</v>
+      </c>
+      <c r="C6" s="7">
+        <v>39.590349478347285</v>
+      </c>
+      <c r="D6" s="6">
+        <v>67.474856321838914</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="8">
+        <v>83.668389814282548</v>
+      </c>
+      <c r="C7" s="9">
+        <v>30.684077217381244</v>
+      </c>
+      <c r="D7" s="8">
+        <v>81.543174420830439</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="6">
+        <v>78.229842446709455</v>
+      </c>
+      <c r="C8" s="7">
+        <v>36.595342692003591</v>
+      </c>
+      <c r="D8" s="6">
+        <v>73.716404077849617</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="106"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="16"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="109"/>
+      <c r="E9" s="110"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6">
+        <v>79.61566091953965</v>
+      </c>
+      <c r="C10" s="7">
+        <v>51.333495701040277</v>
+      </c>
+      <c r="D10" s="6">
+        <v>65.660919540229258</v>
+      </c>
+      <c r="E10" s="14">
+        <v>-0.52341903773606524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="B11" s="8">
+        <v>85.812751292361384</v>
+      </c>
+      <c r="C11" s="9">
+        <v>51.165281002609888</v>
+      </c>
+      <c r="D11" s="8">
+        <v>80.796477120429529</v>
+      </c>
+      <c r="E11" s="16">
+        <v>-2.6724581985256006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="104" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="105">
+        <v>82.402001668057054</v>
+      </c>
+      <c r="C12" s="106">
+        <v>50.432665558770637</v>
+      </c>
+      <c r="D12" s="105">
+        <v>73.366694467612504</v>
+      </c>
+      <c r="E12" s="107">
+        <v>-2.6076065888776601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="8">
+        <v>79.418103448275289</v>
+      </c>
+      <c r="C13" s="9">
+        <v>51.801301633854926</v>
+      </c>
+      <c r="D13" s="8">
+        <v>65.499281609194782</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.63298437987879608</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="6">
+        <v>86.291403408003546</v>
+      </c>
+      <c r="C14" s="7">
+        <v>47.14425141676184</v>
+      </c>
+      <c r="D14" s="6">
+        <v>81.217690982195023</v>
+      </c>
+      <c r="E14" s="14">
+        <v>-3.1527631431080132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="8">
+        <v>82.669138090824376</v>
+      </c>
+      <c r="C15" s="4">
+        <v>50.021651122223368</v>
+      </c>
+      <c r="D15" s="2">
+        <v>73.049119555143122</v>
+      </c>
+      <c r="E15" s="17">
+        <v>-0.21417335292714737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="106"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="18"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="17"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="18"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
@@ -1746,18 +1883,46 @@
       <c r="D19" s="2"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="27"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="18"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="17"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1769,8 +1934,8 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,13 +1967,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -2168,13 +2333,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="106"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="110"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -2534,13 +2699,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="104" t="s">
+      <c r="A46" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="106"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="110"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
@@ -2668,13 +2833,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="106"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2796,13 +2961,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="106"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="110"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -2924,13 +3089,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="110"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
@@ -3016,26 +3181,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="70" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="107" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="111" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="108"/>
-      <c r="E1" s="109"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="1:5" s="71" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="114" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="111" t="s">
+      <c r="B2" s="116"/>
+      <c r="C2" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="116"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="50" t="s">
@@ -3055,7 +3220,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="A4" s="120" t="s">
         <v>46</v>
       </c>
       <c r="B4" s="52" t="s">
@@ -3066,7 +3231,7 @@
       <c r="E4" s="55"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="56" t="s">
         <v>41</v>
       </c>
@@ -3075,7 +3240,7 @@
       <c r="E5" s="59"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="56" t="s">
         <v>42</v>
       </c>
@@ -3084,7 +3249,7 @@
       <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="56" t="s">
         <v>43</v>
       </c>
@@ -3093,7 +3258,7 @@
       <c r="E7" s="59"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
+      <c r="A8" s="121"/>
       <c r="B8" s="56" t="s">
         <v>44</v>
       </c>
@@ -3102,7 +3267,7 @@
       <c r="E8" s="59"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="118"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="60" t="s">
         <v>45</v>
       </c>
@@ -3111,7 +3276,7 @@
       <c r="E9" s="63"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="120" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="52" t="s">
@@ -3122,7 +3287,7 @@
       <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
+      <c r="A11" s="121"/>
       <c r="B11" s="56" t="s">
         <v>41</v>
       </c>
@@ -3131,7 +3296,7 @@
       <c r="E11" s="59"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="56" t="s">
         <v>42</v>
       </c>
@@ -3140,7 +3305,7 @@
       <c r="E12" s="59"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="56" t="s">
         <v>43</v>
       </c>
@@ -3149,7 +3314,7 @@
       <c r="E13" s="59"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="56" t="s">
         <v>44</v>
       </c>
@@ -3158,7 +3323,7 @@
       <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="118"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="60" t="s">
         <v>45</v>
       </c>
@@ -3167,7 +3332,7 @@
       <c r="E15" s="63"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="116" t="s">
+      <c r="A16" s="120" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="52" t="s">
@@ -3178,7 +3343,7 @@
       <c r="E16" s="55"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="56" t="s">
         <v>41</v>
       </c>
@@ -3187,7 +3352,7 @@
       <c r="E17" s="59"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="56" t="s">
         <v>42</v>
       </c>
@@ -3196,7 +3361,7 @@
       <c r="E18" s="59"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="56" t="s">
         <v>43</v>
       </c>
@@ -3205,7 +3370,7 @@
       <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="56" t="s">
         <v>44</v>
       </c>
@@ -3214,7 +3379,7 @@
       <c r="E20" s="59"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="118"/>
+      <c r="A21" s="122"/>
       <c r="B21" s="60" t="s">
         <v>45</v>
       </c>
@@ -3223,7 +3388,7 @@
       <c r="E21" s="63"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="116" t="s">
+      <c r="A22" s="120" t="s">
         <v>49</v>
       </c>
       <c r="B22" s="52" t="s">
@@ -3234,7 +3399,7 @@
       <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="56" t="s">
         <v>41</v>
       </c>
@@ -3243,7 +3408,7 @@
       <c r="E23" s="59"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="117"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="56" t="s">
         <v>42</v>
       </c>
@@ -3252,7 +3417,7 @@
       <c r="E24" s="59"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="117"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="56" t="s">
         <v>43</v>
       </c>
@@ -3261,7 +3426,7 @@
       <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="56" t="s">
         <v>44</v>
       </c>
@@ -3270,7 +3435,7 @@
       <c r="E26" s="59"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="118"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="60" t="s">
         <v>45</v>
       </c>
@@ -3279,7 +3444,7 @@
       <c r="E27" s="63"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="117" t="s">
+      <c r="A28" s="121" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="64" t="s">
@@ -3290,7 +3455,7 @@
       <c r="E28" s="67"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="117"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="56" t="s">
         <v>41</v>
       </c>
@@ -3299,7 +3464,7 @@
       <c r="E29" s="59"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="117"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="56" t="s">
         <v>42</v>
       </c>
@@ -3308,7 +3473,7 @@
       <c r="E30" s="59"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="117"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="56" t="s">
         <v>43</v>
       </c>
@@ -3317,7 +3482,7 @@
       <c r="E31" s="59"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="117"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="56" t="s">
         <v>44</v>
       </c>
@@ -3326,7 +3491,7 @@
       <c r="E32" s="59"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="117"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="74" t="s">
         <v>45</v>
       </c>
@@ -3342,16 +3507,16 @@
       <c r="E34" s="80"/>
     </row>
     <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="112"/>
-      <c r="C35" s="110" t="str">
+      <c r="B35" s="116"/>
+      <c r="C35" s="114" t="str">
         <f>C2</f>
         <v>&lt;Feature Selection Strat&gt;</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="116"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
@@ -3371,7 +3536,7 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="113" t="s">
+      <c r="A37" s="117" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="52" t="s">
@@ -3382,7 +3547,7 @@
       <c r="E37" s="55"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
+      <c r="A38" s="118"/>
       <c r="B38" s="56" t="s">
         <v>52</v>
       </c>
@@ -3391,7 +3556,7 @@
       <c r="E38" s="59"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="115"/>
+      <c r="A39" s="119"/>
       <c r="B39" s="60" t="s">
         <v>53</v>
       </c>

--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2944F3-F986-46E3-964D-C88615662251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE687AAF-D885-46FA-828B-12E44573CAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1725" windowWidth="16965" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5145" yWindow="1530" windowWidth="16965" windowHeight="11760" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Feature Selection" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="70">
   <si>
     <t>Dataset</t>
   </si>
@@ -174,9 +175,6 @@
     <t>O2-M1</t>
   </si>
   <si>
-    <t>01-M2</t>
-  </si>
-  <si>
     <t>Delta</t>
   </si>
   <si>
@@ -210,37 +208,46 @@
     <t>Patient Datasets</t>
   </si>
   <si>
+    <t>P2(REM ONLY)</t>
+  </si>
+  <si>
+    <t>P2(NREM ONLY)</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>P1:P6 PWISE</t>
+  </si>
+  <si>
+    <t>P1:P6 POOL</t>
+  </si>
+  <si>
+    <t>P7:P12 POOL</t>
+  </si>
+  <si>
+    <t>P1:P12 POOL</t>
+  </si>
+  <si>
+    <t>P7:P12 PWISE</t>
+  </si>
+  <si>
+    <t>P1:P12 PWISE</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>Feature Isolation (MCC)</t>
+  </si>
+  <si>
+    <t>O1-M2</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
     <t>&lt;Feature Selection Strat&gt;</t>
-  </si>
-  <si>
-    <t>P2(REM ONLY)</t>
-  </si>
-  <si>
-    <t>P2(NREM ONLY)</t>
-  </si>
-  <si>
-    <t>NaN</t>
-  </si>
-  <si>
-    <t>P1:P6 PWISE</t>
-  </si>
-  <si>
-    <t>P1:P6 POOL</t>
-  </si>
-  <si>
-    <t>P7:P12 POOL</t>
-  </si>
-  <si>
-    <t>P1:P12 POOL</t>
-  </si>
-  <si>
-    <t>P7:P12 PWISE</t>
-  </si>
-  <si>
-    <t>P1:P12 PWISE</t>
-  </si>
-  <si>
-    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -340,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -685,17 +692,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -753,7 +749,9 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -767,6 +765,204 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -774,20 +970,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -795,226 +991,13 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1080,7 +1063,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1099,97 +1082,64 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1231,12 +1181,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1246,6 +1226,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1255,31 +1244,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1288,6 +1259,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00EE6C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1598,7 +1574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB253B6-1476-4929-9617-A4FACB0B7BD2}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
@@ -1632,17 +1608,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B3" s="8">
         <v>75.538793103447915</v>
@@ -1654,12 +1630,12 @@
         <v>66.989942528735469</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" s="36">
         <v>83.228029867891706</v>
@@ -1671,12 +1647,12 @@
         <v>81.121960559065471</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="8">
         <v>77.805578723010683</v>
@@ -1688,12 +1664,12 @@
         <v>73.830043554814566</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="6">
         <v>75.808189655172086</v>
@@ -1705,12 +1681,12 @@
         <v>67.474856321838914</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="8">
         <v>83.668389814282548</v>
@@ -1722,12 +1698,12 @@
         <v>81.543174420830439</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="6">
         <v>78.229842446709455</v>
@@ -1739,21 +1715,21 @@
         <v>73.716404077849617</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108" t="s">
+      <c r="A9" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
-      <c r="E9" s="110"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="109"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="6">
         <v>79.61566091953965</v>
@@ -1770,7 +1746,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="8">
         <v>85.812751292361384</v>
@@ -1786,25 +1762,25 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="105">
+      <c r="A12" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="95">
         <v>82.402001668057054</v>
       </c>
-      <c r="C12" s="106">
+      <c r="C12" s="96">
         <v>50.432665558770637</v>
       </c>
-      <c r="D12" s="105">
+      <c r="D12" s="95">
         <v>73.366694467612504</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="97">
         <v>-2.6076065888776601</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="8">
         <v>79.418103448275289</v>
@@ -1821,7 +1797,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B14" s="6">
         <v>86.291403408003546</v>
@@ -1838,7 +1814,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B15" s="8">
         <v>82.669138090824376</v>
@@ -1854,13 +1830,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="110"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="109"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
@@ -1967,13 +1943,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1988,7 +1964,7 @@
       <c r="D3" s="11">
         <v>62.03</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="78" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2039,7 +2015,7 @@
       <c r="D6" s="6">
         <v>65.77</v>
       </c>
-      <c r="E6" s="101" t="s">
+      <c r="E6" s="90" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2073,7 +2049,7 @@
       <c r="D8" s="6">
         <v>61.58</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="90" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2107,7 +2083,7 @@
       <c r="D10" s="6">
         <v>91.93</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="90" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2141,7 +2117,7 @@
       <c r="D12" s="6">
         <v>78.27</v>
       </c>
-      <c r="E12" s="101" t="s">
+      <c r="E12" s="90" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2175,7 +2151,7 @@
       <c r="D14" s="6">
         <v>85.79</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="90" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2209,7 +2185,7 @@
       <c r="D16" s="3">
         <v>68.23</v>
       </c>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="89" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2243,7 +2219,7 @@
       <c r="D18" s="6">
         <v>81.12</v>
       </c>
-      <c r="E18" s="101" t="s">
+      <c r="E18" s="90" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2265,59 +2241,59 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="97" t="s">
+      <c r="A20" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="98">
+      <c r="B20" s="87">
         <v>58.96</v>
       </c>
-      <c r="C20" s="99">
+      <c r="C20" s="88">
         <v>13.8</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="87">
         <v>61.75</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="89">
         <v>4.88</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="90" t="s">
+      <c r="A21" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="82">
+      <c r="B21" s="71">
         <v>84.6</v>
       </c>
-      <c r="C21" s="83">
+      <c r="C21" s="72">
         <v>78.91</v>
       </c>
-      <c r="D21" s="82">
+      <c r="D21" s="71">
         <v>63.32</v>
       </c>
-      <c r="E21" s="91" t="s">
+      <c r="E21" s="80" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="94">
+    <row r="22" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="83">
         <v>83.07</v>
       </c>
-      <c r="C22" s="95">
+      <c r="C22" s="84">
         <v>16.29</v>
       </c>
-      <c r="D22" s="94">
+      <c r="D22" s="83">
         <v>81.48</v>
       </c>
-      <c r="E22" s="96" t="s">
+      <c r="E22" s="85" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="92" t="s">
-        <v>59</v>
+      <c r="A23" s="81" t="s">
+        <v>57</v>
       </c>
       <c r="B23" s="40">
         <v>79.569999999999993</v>
@@ -2333,13 +2309,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="110"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="109"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
@@ -2410,7 +2386,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="102" t="s">
+      <c r="A29" s="91" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="6">
@@ -2478,7 +2454,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="102" t="s">
+      <c r="A33" s="91" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="6">
@@ -2512,7 +2488,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="102" t="s">
+      <c r="A35" s="91" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="6">
@@ -2648,25 +2624,25 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="103" t="s">
+      <c r="A43" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="85">
+      <c r="B43" s="74">
         <v>82.87</v>
       </c>
-      <c r="C43" s="86">
+      <c r="C43" s="75">
         <v>77.53</v>
       </c>
-      <c r="D43" s="85">
+      <c r="D43" s="74">
         <v>62.46</v>
       </c>
-      <c r="E43" s="87">
+      <c r="E43" s="76">
         <v>5.99</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44" s="37">
         <v>89.42</v>
@@ -2682,8 +2658,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="103" t="s">
-        <v>58</v>
+      <c r="A45" s="92" t="s">
+        <v>56</v>
       </c>
       <c r="B45" s="43">
         <v>78.959999999999994</v>
@@ -2699,13 +2675,13 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="109"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="110"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="108"/>
+      <c r="E46" s="109"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
@@ -2833,13 +2809,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="110"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -2855,7 +2831,7 @@
         <v>63.646967340590763</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2872,7 +2848,7 @@
         <v>68.230088495575075</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2889,7 +2865,7 @@
         <v>67.474856321838914</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2906,7 +2882,7 @@
         <v>81.543174420830439</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2923,7 +2899,7 @@
         <v>73.716404077849617</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2933,14 +2909,14 @@
       <c r="B8" s="3">
         <v>79.831578947368143</v>
       </c>
-      <c r="C8" s="88" t="s">
-        <v>60</v>
+      <c r="C8" s="77" t="s">
+        <v>58</v>
       </c>
       <c r="D8" s="3">
         <v>79.831578947368158</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2957,17 +2933,17 @@
         <v>71.48972602739741</v>
       </c>
       <c r="E9" s="46" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108" t="s">
+      <c r="A10" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="109"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
@@ -3089,13 +3065,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="110"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="109"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
@@ -3166,10 +3142,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234B6861-C9E6-46F0-8BAF-B7D8E2572558}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3180,424 +3156,662 @@
     <col min="4" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="70" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:8" s="66" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="111" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="112"/>
-      <c r="E1" s="113"/>
-    </row>
-    <row r="2" spans="1:5" s="71" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="115"/>
+    </row>
+    <row r="2" spans="1:8" s="67" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="116"/>
-      <c r="C2" s="115" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="116"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="B2" s="112"/>
+      <c r="C2" s="110" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="111"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="111"/>
+      <c r="H2" s="112"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="93" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="99" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="51" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="120" t="s">
-        <v>46</v>
+      <c r="F3" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="116" t="s">
+        <v>40</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C4" s="53"/>
       <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="56" t="s">
+      <c r="E4" s="103">
+        <v>3.6275510578287462</v>
+      </c>
+      <c r="F4" s="53"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="103"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="117"/>
+      <c r="B5" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="104">
+        <v>8.4219430054056392</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="104"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="117"/>
+      <c r="B6" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="104">
+        <v>10.548724824306547</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="104"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="117"/>
+      <c r="B7" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="56"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="104">
+        <v>8.3017063538856721</v>
+      </c>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="104"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="118"/>
+      <c r="B8" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="105">
+        <v>12.999289580405076</v>
+      </c>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="105"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="59"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
-      <c r="B6" s="56" t="s">
+      <c r="B9" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="103">
+        <v>3.1723573893429351</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="103"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="117"/>
+      <c r="B10" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="56"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="104">
+        <v>1.8752341946693913</v>
+      </c>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="104"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="117"/>
+      <c r="B11" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="104">
+        <v>1.6016144884493975</v>
+      </c>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="104"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="117"/>
+      <c r="B12" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="104">
+        <v>7.0482409858152097</v>
+      </c>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="104"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="118"/>
+      <c r="B13" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="105">
+        <v>14.501006113056667</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="105"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="121"/>
-      <c r="B7" s="56" t="s">
+      <c r="B14" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="103">
+        <v>-1.6924879445117416</v>
+      </c>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="103"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="117"/>
+      <c r="B15" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="104">
+        <v>5.0509306373902305</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="104"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="117"/>
+      <c r="B16" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="104">
+        <v>10.684497506232622</v>
+      </c>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="104"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="117"/>
+      <c r="B17" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="104">
+        <v>9.3744022731243213</v>
+      </c>
+      <c r="F17" s="56"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="104"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="118"/>
+      <c r="B18" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="105">
+        <v>13.26918963308527</v>
+      </c>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="105"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
-      <c r="B8" s="56" t="s">
+      <c r="B19" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="103">
+        <v>1.417221214381325</v>
+      </c>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="103"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="117"/>
+      <c r="B20" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="104">
+        <v>4.470794312417766</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="104"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="117"/>
+      <c r="B21" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="104">
+        <v>4.2765158854336756</v>
+      </c>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="104"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="117"/>
+      <c r="B22" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="104">
+        <v>9.4804707645183051</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="104"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="118"/>
+      <c r="B23" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="105">
+        <v>13.949469473588241</v>
+      </c>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="105"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="122"/>
-      <c r="B9" s="60" t="s">
+      <c r="B24" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="103">
+        <v>3.7366944738493224</v>
+      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="103"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="117"/>
+      <c r="B25" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="104">
+        <v>6.5360215422612011</v>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="104"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="117"/>
+      <c r="B26" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="121"/>
-      <c r="B11" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="59"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="121"/>
-      <c r="B12" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="59"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="121"/>
-      <c r="B13" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="121"/>
-      <c r="B14" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="122"/>
-      <c r="B15" s="60" t="s">
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="104">
+        <v>14.429060885828306</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="104"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="117"/>
+      <c r="B27" s="55" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="104">
+        <v>11.364751096278244</v>
+      </c>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="104"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="118"/>
+      <c r="B28" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="59"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="105">
+        <v>11.809503062936489</v>
+      </c>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="105"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="63"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="120" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="103">
+        <v>0.98260534907910624</v>
+      </c>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="103"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="117"/>
+      <c r="B30" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="104">
+        <v>3.0875274715617675</v>
+      </c>
+      <c r="F30" s="56"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="104"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="117"/>
+      <c r="B31" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="104">
+        <v>12.23921973330935</v>
+      </c>
+      <c r="F31" s="56"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="104"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="117"/>
+      <c r="B32" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="121"/>
-      <c r="B17" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="121"/>
-      <c r="B18" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="121"/>
-      <c r="B19" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="121"/>
-      <c r="B20" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="59"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="122"/>
-      <c r="B21" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="63"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="120" t="s">
+      <c r="C32" s="56"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="104">
+        <v>8.8681448702848638</v>
+      </c>
+      <c r="F32" s="56"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="104"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="118"/>
+      <c r="B33" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="55"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="121"/>
-      <c r="B23" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="59"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="121"/>
-      <c r="B24" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="59"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="121"/>
-      <c r="B25" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="121"/>
-      <c r="B26" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="122"/>
-      <c r="B27" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="63"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="121" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="67"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="121"/>
-      <c r="B29" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="59"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="121"/>
-      <c r="B30" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
-      <c r="B31" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="121"/>
-      <c r="B32" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="121"/>
-      <c r="B33" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77"/>
-    </row>
-    <row r="34" spans="1:5" s="71" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="78"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="80"/>
-    </row>
-    <row r="35" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="114" t="s">
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="105">
+        <v>18.350200134460078</v>
+      </c>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="105"/>
+    </row>
+    <row r="34" spans="1:8" s="67" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="100"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="102"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="116"/>
-      <c r="C35" s="114" t="str">
+      <c r="B35" s="112"/>
+      <c r="C35" s="110" t="str">
         <f>C2</f>
+        <v>Feature Isolation (MCC)</v>
+      </c>
+      <c r="D35" s="111"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="110" t="str">
+        <f>F2</f>
         <v>&lt;Feature Selection Strat&gt;</v>
       </c>
-      <c r="D35" s="115"/>
-      <c r="E35" s="116"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="111"/>
+      <c r="H35" s="112"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B36" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="81" t="s">
+      <c r="C36" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="69" t="s">
         <v>26</v>
       </c>
       <c r="E36" s="51" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="117" t="s">
+      <c r="F36" s="70" t="str">
+        <f>F3</f>
+        <v>P1:P6</v>
+      </c>
+      <c r="G36" s="69" t="str">
+        <f>G3</f>
+        <v>P7:P12</v>
+      </c>
+      <c r="H36" s="51" t="str">
+        <f>H3</f>
+        <v>P1:P12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="116" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="53"/>
       <c r="D37" s="54"/>
-      <c r="E37" s="55"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="118"/>
-      <c r="B38" s="56" t="s">
+      <c r="E37" s="103">
+        <v>17.49158693997402</v>
+      </c>
+      <c r="F37" s="53"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="103"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="117"/>
+      <c r="B38" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="104" t="s">
+        <v>68</v>
+      </c>
+      <c r="F38" s="56"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="104"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="118"/>
+      <c r="B39" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="57"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="59"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="119"/>
-      <c r="B39" s="60" t="s">
+      <c r="C39" s="59"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="105"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="64"/>
+      <c r="B40" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="61"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="63"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="64" t="s">
+      <c r="C40" s="62"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="62"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="106"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="65"/>
+      <c r="B41" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="67"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
-      <c r="B41" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="61"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="63"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="F41" s="59"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C35:E35"/>
+  <mergeCells count="15">
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="C35:E35"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="E4:E33 E37:E41 H4:H33 H37:H41">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00EE6C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4:D33 C37:D41 F4:G33 F37:G41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00EE6C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519F0D3C-0829-4528-A80D-CE2CF445364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE351B7-5A61-4F7C-B6BB-1243E2F485AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22095" yWindow="2850" windowWidth="12675" windowHeight="11760" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="21660" yWindow="5625" windowWidth="12675" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="General" sheetId="6" r:id="rId1"/>
+    <sheet name="Gathered Performance" sheetId="6" r:id="rId1"/>
     <sheet name="Pooled Data" sheetId="1" r:id="rId2"/>
     <sheet name="Patient-Wise Data" sheetId="2" r:id="rId3"/>
     <sheet name="Feature Selection" sheetId="3" r:id="rId4"/>
     <sheet name="Patient-Wise, RFC" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="true"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="77">
   <si>
     <t>Dataset</t>
   </si>
@@ -247,9 +247,6 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>&lt;Feature Selection Strat&gt;</t>
-  </si>
-  <si>
     <t>Patient-Wise Split, Random Forest Classifier -- P1:P12</t>
   </si>
   <si>
@@ -266,6 +263,12 @@
   </si>
   <si>
     <t>A, B, G, N1</t>
+  </si>
+  <si>
+    <t>NCA</t>
+  </si>
+  <si>
+    <t>NCA &gt; 2.5</t>
   </si>
 </sst>
 </file>
@@ -342,7 +345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038484"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +357,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038484"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038484"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -899,302 +902,271 @@
       </bottom>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1516,23 +1488,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB253B6-1476-4929-9617-A4FACB0B7BD2}">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="true"/>
-    <col min="2" max="2" width="19" style="1" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="true"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="true"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="true"/>
-    <col min="6" max="6" width="3" style="1" customWidth="true"/>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" thickBot="true" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1549,16 +1521,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>60</v>
       </c>
@@ -1575,7 +1547,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>61</v>
       </c>
@@ -1592,7 +1564,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>62</v>
       </c>
@@ -1609,7 +1581,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>59</v>
       </c>
@@ -1626,7 +1598,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>63</v>
       </c>
@@ -1643,7 +1615,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>64</v>
       </c>
@@ -1660,16 +1632,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A9" s="91" t="s">
+    <row r="9" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="93"/>
-    </row>
-    <row r="10" x14ac:dyDescent="0.25">
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="106"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>60</v>
       </c>
@@ -1686,7 +1658,7 @@
         <v>-0.52341903773606524</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>61</v>
       </c>
@@ -1703,7 +1675,7 @@
         <v>-2.6724581985256006</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="84" t="s">
         <v>62</v>
       </c>
@@ -1720,7 +1692,7 @@
         <v>-2.6076065888776601</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>59</v>
       </c>
@@ -1737,7 +1709,7 @@
         <v>0.63298437987879608</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>63</v>
       </c>
@@ -1754,7 +1726,7 @@
         <v>-3.1527631431080132</v>
       </c>
     </row>
-    <row r="15" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -1771,65 +1743,65 @@
         <v>-0.21417335292714737</v>
       </c>
     </row>
-    <row r="16" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A16" s="91" t="s">
+    <row r="16" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
-    </row>
-    <row r="17" x14ac:dyDescent="0.25">
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="106"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
       <c r="D18" s="3"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
@@ -1852,22 +1824,22 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="true"/>
-    <col min="2" max="2" width="19" style="1" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="true"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="true"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="true"/>
-    <col min="6" max="6" width="3" style="1" customWidth="true"/>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" thickBot="true" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1884,16 +1856,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -1910,7 +1882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1927,7 +1899,7 @@
         <v>-5.95</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -1944,7 +1916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
@@ -1961,7 +1933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
@@ -1978,7 +1950,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
@@ -1995,7 +1967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
@@ -2012,7 +1984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
@@ -2029,7 +2001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
@@ -2046,7 +2018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
@@ -2063,7 +2035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
@@ -2080,7 +2052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
@@ -2097,7 +2069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
@@ -2114,7 +2086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
@@ -2131,7 +2103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
@@ -2148,7 +2120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
@@ -2165,7 +2137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
@@ -2182,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="76" t="s">
         <v>28</v>
       </c>
@@ -2199,7 +2171,7 @@
         <v>4.88</v>
       </c>
     </row>
-    <row r="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>30</v>
       </c>
@@ -2216,7 +2188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" s="63" customFormat="true" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="72" t="s">
         <v>56</v>
       </c>
@@ -2233,7 +2205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" s="42" customFormat="true" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="71" t="s">
         <v>57</v>
       </c>
@@ -2250,16 +2222,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A24" s="91" t="s">
+    <row r="24" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="93"/>
-    </row>
-    <row r="25" x14ac:dyDescent="0.25">
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="106"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2248,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>6</v>
       </c>
@@ -2293,7 +2265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
@@ -2310,7 +2282,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>11</v>
       </c>
@@ -2327,7 +2299,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="29" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="81" t="s">
         <v>12</v>
       </c>
@@ -2344,7 +2316,7 @@
         <v>-7.15</v>
       </c>
     </row>
-    <row r="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>18</v>
       </c>
@@ -2361,7 +2333,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>19</v>
       </c>
@@ -2378,7 +2350,7 @@
         <v>-2.72</v>
       </c>
     </row>
-    <row r="32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>20</v>
       </c>
@@ -2395,7 +2367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="81" t="s">
         <v>21</v>
       </c>
@@ -2412,7 +2384,7 @@
         <v>-6.48</v>
       </c>
     </row>
-    <row r="34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>22</v>
       </c>
@@ -2429,7 +2401,7 @@
         <v>-3.06</v>
       </c>
     </row>
-    <row r="35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="81" t="s">
         <v>23</v>
       </c>
@@ -2446,7 +2418,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="36" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>24</v>
       </c>
@@ -2463,7 +2435,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>13</v>
       </c>
@@ -2480,7 +2452,7 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>14</v>
       </c>
@@ -2497,7 +2469,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>25</v>
       </c>
@@ -2514,7 +2486,7 @@
         <v>-0.52</v>
       </c>
     </row>
-    <row r="40" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>26</v>
       </c>
@@ -2531,7 +2503,7 @@
         <v>-2.67</v>
       </c>
     </row>
-    <row r="41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>27</v>
       </c>
@@ -2548,7 +2520,7 @@
         <v>-2.61</v>
       </c>
     </row>
-    <row r="42" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>28</v>
       </c>
@@ -2565,7 +2537,7 @@
         <v>16.78</v>
       </c>
     </row>
-    <row r="43" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="82" t="s">
         <v>30</v>
       </c>
@@ -2582,7 +2554,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>56</v>
       </c>
@@ -2599,7 +2571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="82" t="s">
         <v>56</v>
       </c>
@@ -2616,16 +2588,16 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="46" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A46" s="91" t="s">
+    <row r="46" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="92"/>
-      <c r="C46" s="92"/>
-      <c r="D46" s="92"/>
-      <c r="E46" s="93"/>
-    </row>
-    <row r="47" x14ac:dyDescent="0.25">
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="106"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
@@ -2642,7 +2614,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>9</v>
       </c>
@@ -2659,42 +2631,42 @@
         <v>-6.65</v>
       </c>
     </row>
-    <row r="49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4"/>
       <c r="D49" s="2"/>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="3"/>
       <c r="C50" s="5"/>
       <c r="D50" s="3"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="2"/>
       <c r="C51" s="4"/>
       <c r="D51" s="2"/>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="3"/>
       <c r="C52" s="5"/>
       <c r="D52" s="3"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="2"/>
       <c r="C53" s="4"/>
       <c r="D53" s="2"/>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="29"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
@@ -2724,16 +2696,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="true"/>
-    <col min="2" max="2" width="19" style="1" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="true"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="true"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="true"/>
-    <col min="6" max="6" width="3" style="1" customWidth="true"/>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" thickBot="true" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -2750,16 +2722,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25">
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="106"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -2776,7 +2748,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
@@ -2793,7 +2765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
@@ -2810,7 +2782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
@@ -2827,24 +2799,24 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="104">
+      <c r="B7" s="92">
         <v>78.229842446709455</v>
       </c>
-      <c r="C7" s="105">
+      <c r="C7" s="93">
         <v>36.595342692003591</v>
       </c>
-      <c r="D7" s="104">
+      <c r="D7" s="92">
         <v>73.716404077849617</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="94" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>31</v>
       </c>
@@ -2861,7 +2833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" s="42" customFormat="true" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>32</v>
       </c>
@@ -2878,16 +2850,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A10" s="91" t="s">
+    <row r="10" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="93"/>
-    </row>
-    <row r="11" x14ac:dyDescent="0.25">
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="106"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
@@ -2904,7 +2876,7 @@
         <v>-1.0576287972076925</v>
       </c>
     </row>
-    <row r="12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
@@ -2921,7 +2893,7 @@
         <v>-2.1575924583361288</v>
       </c>
     </row>
-    <row r="13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
@@ -2938,7 +2910,7 @@
         <v>0.63298437987879608</v>
       </c>
     </row>
-    <row r="14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
@@ -2955,24 +2927,24 @@
         <v>-3.1527631431080132</v>
       </c>
     </row>
-    <row r="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="107" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="96">
         <v>82.669138090824376</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="97">
         <v>50.021651122223368</v>
       </c>
-      <c r="D15" s="108">
+      <c r="D15" s="96">
         <v>73.049119555143122</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="98">
         <v>-0.21417335292714737</v>
       </c>
     </row>
-    <row r="16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>31</v>
       </c>
@@ -2989,7 +2961,7 @@
         <v>-4.3882060142790014</v>
       </c>
     </row>
-    <row r="17" s="42" customFormat="true" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>32</v>
       </c>
@@ -3006,65 +2978,65 @@
         <v>1.5208522564238027</v>
       </c>
     </row>
-    <row r="18" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A18" s="91" t="s">
+    <row r="18" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="93"/>
-    </row>
-    <row r="19" x14ac:dyDescent="0.25">
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="106"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
       <c r="D24" s="3"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
@@ -3086,559 +3058,559 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234B6861-C9E6-46F0-8BAF-B7D8E2572558}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="49" customWidth="true"/>
-    <col min="2" max="2" width="12.85546875" style="49" customWidth="true"/>
-    <col min="3" max="3" width="10.42578125" style="49" customWidth="true"/>
+    <col min="1" max="1" width="13.42578125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="49" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="49" customWidth="1"/>
     <col min="4" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" s="58" customFormat="true" ht="23.25" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+    <row r="1" spans="1:8" s="58" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="99" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="100"/>
-    </row>
-    <row r="2" s="59" customFormat="true" ht="18" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
+    </row>
+    <row r="2" spans="1:8" s="59" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="97" t="s">
+      <c r="B2" s="121"/>
+      <c r="C2" s="119" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="97" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="98"/>
-    </row>
-    <row r="3" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="D2" s="120"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="119" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="120"/>
+      <c r="H2" s="121"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="83" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="116" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="118"/>
-    </row>
-    <row r="4" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="125" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="119">
+      <c r="C4" s="110">
         <v>3.6275510578287462</v>
       </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="128">
-        <v>1.8606116263248594e-22</v>
-      </c>
-      <c r="G4" s="129"/>
-      <c r="H4" s="130"/>
-    </row>
-    <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="110">
+        <v>1.8606116263248601E-22</v>
+      </c>
+      <c r="G4" s="111"/>
+      <c r="H4" s="112"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="126"/>
       <c r="B5" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="122">
+      <c r="C5" s="113">
         <v>8.4219430054056392</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="131">
-        <v>0.00051935165638107832</v>
-      </c>
-      <c r="G5" s="132"/>
-      <c r="H5" s="133"/>
-    </row>
-    <row r="6" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="113">
+        <v>5.1935165638107832E-4</v>
+      </c>
+      <c r="G5" s="114"/>
+      <c r="H5" s="115"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="126"/>
       <c r="B6" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="122">
+      <c r="C6" s="113">
         <v>10.548724824306547</v>
       </c>
-      <c r="D6" s="123"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="131">
+      <c r="D6" s="114"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="113">
         <v>2.6501273447068896</v>
       </c>
-      <c r="G6" s="132"/>
-      <c r="H6" s="133"/>
-    </row>
-    <row r="7" x14ac:dyDescent="0.25">
-      <c r="A7" s="95"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="115"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="126"/>
       <c r="B7" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="122">
+      <c r="C7" s="113">
         <v>8.3017063538856721</v>
       </c>
-      <c r="D7" s="123"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="131">
+      <c r="D7" s="114"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="113">
         <v>5.0217537845057461</v>
       </c>
-      <c r="G7" s="132"/>
-      <c r="H7" s="133"/>
-    </row>
-    <row r="8" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A8" s="96"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="115"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="127"/>
       <c r="B8" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="125">
+      <c r="C8" s="116">
         <v>12.999289580405076</v>
       </c>
-      <c r="D8" s="126"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="134">
-        <v>0.00024961024287453878</v>
-      </c>
-      <c r="G8" s="135"/>
-      <c r="H8" s="136"/>
-    </row>
-    <row r="9" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="s">
+      <c r="D8" s="117"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="116">
+        <v>2.4961024287453878E-4</v>
+      </c>
+      <c r="G8" s="117"/>
+      <c r="H8" s="118"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="125" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="119">
+      <c r="C9" s="110">
         <v>3.1723573893429351</v>
       </c>
-      <c r="D9" s="120"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="128">
-        <v>3.9372680662960255e-16</v>
-      </c>
-      <c r="G9" s="129"/>
-      <c r="H9" s="130"/>
-    </row>
-    <row r="10" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="110">
+        <v>3.9372680662960255E-16</v>
+      </c>
+      <c r="G9" s="111"/>
+      <c r="H9" s="112"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="126"/>
       <c r="B10" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="122">
+      <c r="C10" s="113">
         <v>1.8752341946693913</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="131">
-        <v>0.0007780366337028483</v>
-      </c>
-      <c r="G10" s="132"/>
-      <c r="H10" s="133"/>
-    </row>
-    <row r="11" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="113">
+        <v>7.780366337028483E-4</v>
+      </c>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="126"/>
       <c r="B11" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="122">
+      <c r="C11" s="113">
         <v>1.6016144884493975</v>
       </c>
-      <c r="D11" s="123"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="131">
-        <v>1.142407435247053e-05</v>
-      </c>
-      <c r="G11" s="132"/>
-      <c r="H11" s="133"/>
-    </row>
-    <row r="12" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="113">
+        <v>1.142407435247053E-5</v>
+      </c>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="126"/>
       <c r="B12" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="122">
+      <c r="C12" s="113">
         <v>7.0482409858152097</v>
       </c>
-      <c r="D12" s="123"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="131">
-        <v>2.8741807661118358e-07</v>
-      </c>
-      <c r="G12" s="132"/>
-      <c r="H12" s="133"/>
-    </row>
-    <row r="13" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A13" s="96"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="113">
+        <v>2.8741807661118358E-7</v>
+      </c>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="127"/>
       <c r="B13" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="125">
+      <c r="C13" s="116">
         <v>14.501006113056667</v>
       </c>
-      <c r="D13" s="126"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="134">
-        <v>4.9371662833270124e-09</v>
-      </c>
-      <c r="G13" s="135"/>
-      <c r="H13" s="136"/>
-    </row>
-    <row r="14" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="116">
+        <v>4.9371662833270124E-9</v>
+      </c>
+      <c r="G13" s="117"/>
+      <c r="H13" s="118"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="125" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="119">
+      <c r="C14" s="110">
         <v>-1.6924879445117416</v>
       </c>
-      <c r="D14" s="120"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="128">
-        <v>4.6477409901267686e-10</v>
-      </c>
-      <c r="G14" s="129"/>
-      <c r="H14" s="130"/>
-    </row>
-    <row r="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="110">
+        <v>4.6477409901267686E-10</v>
+      </c>
+      <c r="G14" s="111"/>
+      <c r="H14" s="112"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="126"/>
       <c r="B15" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="122">
+      <c r="C15" s="113">
         <v>5.0509306373902305</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="124"/>
-      <c r="F15" s="131">
-        <v>1.5860859934475133e-08</v>
-      </c>
-      <c r="G15" s="132"/>
-      <c r="H15" s="133"/>
-    </row>
-    <row r="16" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="113">
+        <v>1.5860859934475133E-8</v>
+      </c>
+      <c r="G15" s="114"/>
+      <c r="H15" s="115"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="126"/>
       <c r="B16" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="122">
+      <c r="C16" s="113">
         <v>10.684497506232622</v>
       </c>
-      <c r="D16" s="123"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="131">
-        <v>0.018161128103066193</v>
-      </c>
-      <c r="G16" s="132"/>
-      <c r="H16" s="133"/>
-    </row>
-    <row r="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="113">
+        <v>1.8161128103066193E-2</v>
+      </c>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="126"/>
       <c r="B17" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="122">
+      <c r="C17" s="113">
         <v>9.3744022731243213</v>
       </c>
-      <c r="D17" s="123"/>
-      <c r="E17" s="124"/>
-      <c r="F17" s="131">
-        <v>0.00062081026516982985</v>
-      </c>
-      <c r="G17" s="132"/>
-      <c r="H17" s="133"/>
-    </row>
-    <row r="18" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A18" s="96"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="113">
+        <v>6.2081026516982985E-4</v>
+      </c>
+      <c r="G17" s="114"/>
+      <c r="H17" s="115"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="127"/>
       <c r="B18" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="125">
+      <c r="C18" s="116">
         <v>13.26918963308527</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="134">
-        <v>2.0535326481499199e-06</v>
-      </c>
-      <c r="G18" s="135"/>
-      <c r="H18" s="136"/>
-    </row>
-    <row r="19" x14ac:dyDescent="0.25">
-      <c r="A19" s="94" t="s">
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="116">
+        <v>2.0535326481499199E-6</v>
+      </c>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="125" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="119">
+      <c r="C19" s="110">
         <v>1.417221214381325</v>
       </c>
-      <c r="D19" s="120"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="128">
-        <v>1.3703478585667156e-21</v>
-      </c>
-      <c r="G19" s="129"/>
-      <c r="H19" s="130"/>
-    </row>
-    <row r="20" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="110">
+        <v>1.3703478585667156E-21</v>
+      </c>
+      <c r="G19" s="111"/>
+      <c r="H19" s="112"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="126"/>
       <c r="B20" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="122">
+      <c r="C20" s="113">
         <v>4.470794312417766</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="131">
-        <v>1.5076955303017472e-11</v>
-      </c>
-      <c r="G20" s="132"/>
-      <c r="H20" s="133"/>
-    </row>
-    <row r="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="113">
+        <v>1.5076955303017472E-11</v>
+      </c>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="126"/>
       <c r="B21" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="122">
+      <c r="C21" s="113">
         <v>4.2765158854336756</v>
       </c>
-      <c r="D21" s="123"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="131">
-        <v>9.246312284953016e-15</v>
-      </c>
-      <c r="G21" s="132"/>
-      <c r="H21" s="133"/>
-    </row>
-    <row r="22" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="113">
+        <v>9.246312284953016E-15</v>
+      </c>
+      <c r="G21" s="114"/>
+      <c r="H21" s="115"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="126"/>
       <c r="B22" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="122">
+      <c r="C22" s="113">
         <v>9.4804707645183051</v>
       </c>
-      <c r="D22" s="123"/>
-      <c r="E22" s="124"/>
-      <c r="F22" s="131">
-        <v>1.3199528372116972e-18</v>
-      </c>
-      <c r="G22" s="132"/>
-      <c r="H22" s="133"/>
-    </row>
-    <row r="23" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A23" s="96"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="113">
+        <v>1.3199528372116972E-18</v>
+      </c>
+      <c r="G22" s="114"/>
+      <c r="H22" s="115"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="127"/>
       <c r="B23" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="125">
+      <c r="C23" s="116">
         <v>13.949469473588241</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="134">
-        <v>9.6351702140497626e-26</v>
-      </c>
-      <c r="G23" s="135"/>
-      <c r="H23" s="136"/>
-    </row>
-    <row r="24" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="D23" s="117"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="116">
+        <v>9.6351702140497626E-26</v>
+      </c>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="125" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="119">
+      <c r="C24" s="110">
         <v>3.7366944738493224</v>
       </c>
-      <c r="D24" s="120"/>
-      <c r="E24" s="121"/>
-      <c r="F24" s="128">
-        <v>8.7468181796251142e-18</v>
-      </c>
-      <c r="G24" s="129"/>
-      <c r="H24" s="130"/>
-    </row>
-    <row r="25" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="110">
+        <v>8.7468181796251142E-18</v>
+      </c>
+      <c r="G24" s="111"/>
+      <c r="H24" s="112"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="126"/>
       <c r="B25" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="122">
+      <c r="C25" s="113">
         <v>6.5360215422612011</v>
       </c>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="131">
-        <v>4.2518202504414849e-09</v>
-      </c>
-      <c r="G25" s="132"/>
-      <c r="H25" s="133"/>
-    </row>
-    <row r="26" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="113">
+        <v>4.2518202504414849E-9</v>
+      </c>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="126"/>
       <c r="B26" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="122">
+      <c r="C26" s="113">
         <v>14.429060885828306</v>
       </c>
-      <c r="D26" s="123"/>
-      <c r="E26" s="124"/>
-      <c r="F26" s="131">
+      <c r="D26" s="114"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="113">
         <v>2.947566171429147</v>
       </c>
-      <c r="G26" s="132"/>
-      <c r="H26" s="133"/>
-    </row>
-    <row r="27" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="126"/>
       <c r="B27" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="122">
+      <c r="C27" s="113">
         <v>11.364751096278244</v>
       </c>
-      <c r="D27" s="123"/>
-      <c r="E27" s="124"/>
-      <c r="F27" s="131">
-        <v>0.043325414600633064</v>
-      </c>
-      <c r="G27" s="132"/>
-      <c r="H27" s="133"/>
-    </row>
-    <row r="28" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A28" s="96"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="113">
+        <v>4.3325414600633064E-2</v>
+      </c>
+      <c r="G27" s="114"/>
+      <c r="H27" s="115"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="127"/>
       <c r="B28" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="125">
+      <c r="C28" s="116">
         <v>11.809503062936489</v>
       </c>
-      <c r="D28" s="126"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="134">
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="116">
         <v>7.0667040674100789</v>
       </c>
-      <c r="G28" s="135"/>
-      <c r="H28" s="136"/>
-    </row>
-    <row r="29" x14ac:dyDescent="0.25">
-      <c r="A29" s="94" t="s">
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="125" t="s">
         <v>67</v>
       </c>
       <c r="B29" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="119">
+      <c r="C29" s="110">
         <v>0.98260534907910624</v>
       </c>
-      <c r="D29" s="120"/>
-      <c r="E29" s="121"/>
-      <c r="F29" s="128">
-        <v>1.4927213919980418e-05</v>
-      </c>
-      <c r="G29" s="129"/>
-      <c r="H29" s="130"/>
-    </row>
-    <row r="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="110">
+        <v>1.4927213919980418E-5</v>
+      </c>
+      <c r="G29" s="111"/>
+      <c r="H29" s="112"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="126"/>
       <c r="B30" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="122">
+      <c r="C30" s="113">
         <v>3.0875274715617675</v>
       </c>
-      <c r="D30" s="123"/>
-      <c r="E30" s="124"/>
-      <c r="F30" s="131">
+      <c r="D30" s="114"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="113">
         <v>3.6100431311301344</v>
       </c>
-      <c r="G30" s="132"/>
-      <c r="H30" s="133"/>
-    </row>
-    <row r="31" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="115"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="126"/>
       <c r="B31" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="122">
+      <c r="C31" s="113">
         <v>12.23921973330935</v>
       </c>
-      <c r="D31" s="123"/>
-      <c r="E31" s="124"/>
-      <c r="F31" s="131">
-        <v>1.0963609389521825e-07</v>
-      </c>
-      <c r="G31" s="132"/>
-      <c r="H31" s="133"/>
-    </row>
-    <row r="32" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="113">
+        <v>1.0963609389521825E-7</v>
+      </c>
+      <c r="G31" s="114"/>
+      <c r="H31" s="115"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="126"/>
       <c r="B32" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="122">
+      <c r="C32" s="113">
         <v>8.8681448702848638</v>
       </c>
-      <c r="D32" s="123"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="131">
+      <c r="D32" s="114"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="113">
         <v>0.19384139322017396</v>
       </c>
-      <c r="G32" s="132"/>
-      <c r="H32" s="133"/>
-    </row>
-    <row r="33" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A33" s="96"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="115"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="127"/>
       <c r="B33" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="125">
+      <c r="C33" s="116">
         <v>18.350200134460078</v>
       </c>
-      <c r="D33" s="126"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="134">
-        <v>0.017769249305167305</v>
-      </c>
-      <c r="G33" s="135"/>
-      <c r="H33" s="136"/>
-    </row>
-    <row r="34" s="59" customFormat="true" ht="18" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="D33" s="117"/>
+      <c r="E33" s="118"/>
+      <c r="F33" s="116">
+        <v>1.7769249305167305E-2</v>
+      </c>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
+    </row>
+    <row r="34" spans="1:8" s="59" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="88"/>
       <c r="B34" s="89"/>
       <c r="C34" s="89"/>
@@ -3648,149 +3620,177 @@
       <c r="G34" s="89"/>
       <c r="H34" s="90"/>
     </row>
-    <row r="35" ht="18" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A35" s="97" t="s">
+    <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="97" t="str">
+      <c r="B35" s="121"/>
+      <c r="C35" s="119" t="str">
         <f>C2</f>
         <v>Feature Isolation (MCC)</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="98"/>
-      <c r="F35" s="97" t="str">
+      <c r="D35" s="120"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="119" t="str">
         <f>F2</f>
-        <v>&lt;Feature Selection Strat&gt;</v>
-      </c>
-      <c r="G35" s="101"/>
-      <c r="H35" s="98"/>
-    </row>
-    <row r="36" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+        <v>NCA</v>
+      </c>
+      <c r="G35" s="120"/>
+      <c r="H35" s="121"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="116" t="s">
+      <c r="C36" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="117"/>
-      <c r="E36" s="118"/>
-      <c r="F36" s="116" t="str">
+      <c r="D36" s="108"/>
+      <c r="E36" s="109"/>
+      <c r="F36" s="107" t="str">
         <f>F3</f>
         <v>P1:P12</v>
       </c>
-      <c r="G36" s="117"/>
-      <c r="H36" s="118"/>
-    </row>
-    <row r="37" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
+      <c r="G36" s="108"/>
+      <c r="H36" s="109"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="125" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="119">
+      <c r="C37" s="110">
         <v>17.49158693997402</v>
       </c>
-      <c r="D37" s="120"/>
-      <c r="E37" s="121"/>
-      <c r="F37" s="128">
+      <c r="D37" s="111"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="110">
         <v>5.3164420147111429</v>
       </c>
-      <c r="G37" s="129"/>
-      <c r="H37" s="130"/>
-    </row>
-    <row r="38" x14ac:dyDescent="0.25">
-      <c r="A38" s="95"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="112"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="126"/>
       <c r="B38" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="122" t="s">
+      <c r="C38" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="123"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="131">
+      <c r="D38" s="114"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="113">
         <v>4.8070407980804593</v>
       </c>
-      <c r="G38" s="132"/>
-      <c r="H38" s="133"/>
-    </row>
-    <row r="39" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A39" s="96"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="115"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="127"/>
       <c r="B39" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="125" t="s">
+      <c r="C39" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="126"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="134">
+      <c r="D39" s="117"/>
+      <c r="E39" s="118"/>
+      <c r="F39" s="116">
         <v>2.572310374621082</v>
       </c>
-      <c r="G39" s="135"/>
-      <c r="H39" s="136"/>
-    </row>
-    <row r="40" x14ac:dyDescent="0.25">
+      <c r="G39" s="117"/>
+      <c r="H39" s="118"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="56"/>
       <c r="B40" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="119" t="s">
+      <c r="C40" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="120"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="128">
-        <v>0.060136412501437801</v>
-      </c>
-      <c r="G40" s="129"/>
-      <c r="H40" s="130"/>
-    </row>
-    <row r="41" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="D40" s="111"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="110">
+        <v>6.0136412501437801E-2</v>
+      </c>
+      <c r="G40" s="111"/>
+      <c r="H40" s="112"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="57"/>
       <c r="B41" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="125" t="s">
+      <c r="C41" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="126"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="134">
+      <c r="D41" s="117"/>
+      <c r="E41" s="118"/>
+      <c r="F41" s="116">
         <v>2.8928061197467767</v>
       </c>
-      <c r="G41" s="135"/>
-      <c r="H41" s="136"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="118"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
+  <mergeCells count="89">
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="C1:H1"/>
@@ -3807,22 +3807,29 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C4:C33 C37:C41">
@@ -3846,6 +3853,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3855,19 +3863,19 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="1" customWidth="true"/>
-    <col min="2" max="2" width="19" style="1" customWidth="true"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="true"/>
-    <col min="4" max="4" width="3" style="1" customWidth="true"/>
+    <col min="1" max="1" width="29.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="3" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" thickBot="true" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -3878,77 +3886,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-    </row>
-    <row r="3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="104" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="105"/>
+      <c r="C2" s="106"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="11">
         <v>81.23</v>
       </c>
-      <c r="C3" s="112">
+      <c r="C3" s="100">
         <v>48.98</v>
       </c>
     </row>
-    <row r="4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="99">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="C4" s="101">
+        <v>47.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
         <v>71</v>
-      </c>
-      <c r="B4" s="111">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="C4" s="113">
-        <v>47.09</v>
-      </c>
-    </row>
-    <row r="5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>72</v>
       </c>
       <c r="B5" s="8">
         <v>79.95</v>
       </c>
-      <c r="C5" s="114">
+      <c r="C5" s="102">
         <v>47.13</v>
       </c>
     </row>
-    <row r="6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="8">
         <v>81.540000000000006</v>
       </c>
-      <c r="C6" s="114">
+      <c r="C6" s="102">
         <v>49.48</v>
       </c>
     </row>
-    <row r="7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B7" s="8">
         <v>81.96</v>
       </c>
-      <c r="C7" s="114">
+      <c r="C7" s="102">
         <v>50.91</v>
       </c>
     </row>
-    <row r="8" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="17"/>
-    </row>
-    <row r="9" s="42" customFormat="true" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="2">
+        <v>80.28</v>
+      </c>
+      <c r="C8" s="17">
+        <v>44.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="48"/>
       <c r="B9" s="40"/>
-      <c r="C9" s="115"/>
+      <c r="C9" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Deliverables/PerformanceRecord.xlsx
+++ b/Deliverables/PerformanceRecord.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeby\Proj-SleepAnalysisSRS\Deliverables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE687AAF-D885-46FA-828B-12E44573CAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519F0D3C-0829-4528-A80D-CE2CF445364F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="1530" windowWidth="16965" windowHeight="11760" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22095" yWindow="2850" windowWidth="12675" windowHeight="11760" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="6" r:id="rId1"/>
     <sheet name="Pooled Data" sheetId="1" r:id="rId2"/>
     <sheet name="Patient-Wise Data" sheetId="2" r:id="rId3"/>
     <sheet name="Feature Selection" sheetId="3" r:id="rId4"/>
+    <sheet name="Patient-Wise, RFC" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="76">
   <si>
     <t>Dataset</t>
   </si>
@@ -248,6 +248,24 @@
   </si>
   <si>
     <t>&lt;Feature Selection Strat&gt;</t>
+  </si>
+  <si>
+    <t>Patient-Wise Split, Random Forest Classifier -- P1:P12</t>
+  </si>
+  <si>
+    <t>Alpha, Gamma</t>
+  </si>
+  <si>
+    <t>Beta, Gamma</t>
+  </si>
+  <si>
+    <t>Alpha, Beta, Gamma</t>
+  </si>
+  <si>
+    <t>A, B, G, Sleep Stage</t>
+  </si>
+  <si>
+    <t>A, B, G, N1</t>
   </si>
 </sst>
 </file>
@@ -309,7 +327,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -324,7 +342,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,18 +354,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.79995117038484"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
+        <fgColor theme="9" tint="0.79995117038484"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="51">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -783,96 +807,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -916,73 +850,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -993,266 +860,341 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="22" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="14" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="15" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="16" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="32" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="3" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1576,21 +1518,21 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="true"/>
+    <col min="2" max="2" width="19" style="1" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="true"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="true"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="true"/>
+    <col min="6" max="6" width="3" style="1" customWidth="true"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="19.5" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1607,16 +1549,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+    <row r="2" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>60</v>
       </c>
@@ -1633,7 +1575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>61</v>
       </c>
@@ -1650,7 +1592,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>62</v>
       </c>
@@ -1667,7 +1609,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>59</v>
       </c>
@@ -1684,7 +1626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>63</v>
       </c>
@@ -1701,7 +1643,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>64</v>
       </c>
@@ -1718,16 +1660,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107" t="s">
+    <row r="9" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A9" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="109"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>60</v>
       </c>
@@ -1744,7 +1686,7 @@
         <v>-0.52341903773606524</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>61</v>
       </c>
@@ -1761,24 +1703,24 @@
         <v>-2.6724581985256006</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="94" t="s">
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="85">
         <v>82.402001668057054</v>
       </c>
-      <c r="C12" s="96">
+      <c r="C12" s="86">
         <v>50.432665558770637</v>
       </c>
-      <c r="D12" s="95">
+      <c r="D12" s="85">
         <v>73.366694467612504</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="87">
         <v>-2.6076065888776601</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>59</v>
       </c>
@@ -1795,7 +1737,7 @@
         <v>0.63298437987879608</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>63</v>
       </c>
@@ -1812,7 +1754,7 @@
         <v>-3.1527631431080132</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>64</v>
       </c>
@@ -1829,65 +1771,65 @@
         <v>-0.21417335292714737</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="107" t="s">
+    <row r="16" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A16" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="109"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
       <c r="D17" s="8"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
       <c r="D18" s="3"/>
       <c r="E18" s="18"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
       <c r="D19" s="2"/>
       <c r="E19" s="17"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A24" s="29"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
@@ -1910,22 +1852,22 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="true"/>
+    <col min="2" max="2" width="19" style="1" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="true"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="true"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="true"/>
+    <col min="6" max="6" width="3" style="1" customWidth="true"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="19.5" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -1942,16 +1884,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+    <row r="2" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -1964,11 +1906,11 @@
       <c r="D3" s="11">
         <v>62.03</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1985,7 +1927,7 @@
         <v>-5.95</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
@@ -2002,7 +1944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>11</v>
       </c>
@@ -2015,11 +1957,11 @@
       <c r="D6" s="6">
         <v>65.77</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="80" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
@@ -2036,7 +1978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>18</v>
       </c>
@@ -2049,11 +1991,11 @@
       <c r="D8" s="6">
         <v>61.58</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="80" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>19</v>
       </c>
@@ -2070,7 +2012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>20</v>
       </c>
@@ -2083,11 +2025,11 @@
       <c r="D10" s="6">
         <v>91.93</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="80" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
@@ -2104,7 +2046,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
@@ -2117,11 +2059,11 @@
       <c r="D12" s="6">
         <v>78.27</v>
       </c>
-      <c r="E12" s="90" t="s">
+      <c r="E12" s="80" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>23</v>
       </c>
@@ -2138,7 +2080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
@@ -2151,11 +2093,11 @@
       <c r="D14" s="6">
         <v>85.79</v>
       </c>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="80" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>13</v>
       </c>
@@ -2172,7 +2114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>14</v>
       </c>
@@ -2185,11 +2127,11 @@
       <c r="D16" s="3">
         <v>68.23</v>
       </c>
-      <c r="E16" s="89" t="s">
+      <c r="E16" s="79" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
@@ -2206,7 +2148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>26</v>
       </c>
@@ -2219,11 +2161,11 @@
       <c r="D18" s="6">
         <v>81.12</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="80" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>27</v>
       </c>
@@ -2240,59 +2182,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="86" t="s">
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="87">
+      <c r="B20" s="77">
         <v>58.96</v>
       </c>
-      <c r="C20" s="88">
+      <c r="C20" s="78">
         <v>13.8</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="77">
         <v>61.75</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="79">
         <v>4.88</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="71">
+      <c r="B21" s="61">
         <v>84.6</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="62">
         <v>78.91</v>
       </c>
-      <c r="D21" s="71">
+      <c r="D21" s="61">
         <v>63.32</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="70" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="73" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="82" t="s">
+    <row r="22" s="63" customFormat="true" x14ac:dyDescent="0.25">
+      <c r="A22" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B22" s="73">
         <v>83.07</v>
       </c>
-      <c r="C22" s="84">
+      <c r="C22" s="74">
         <v>16.29</v>
       </c>
-      <c r="D22" s="83">
+      <c r="D22" s="73">
         <v>81.48</v>
       </c>
-      <c r="E22" s="85" t="s">
+      <c r="E22" s="75" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+    <row r="23" s="42" customFormat="true" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A23" s="71" t="s">
         <v>57</v>
       </c>
       <c r="B23" s="40">
@@ -2308,16 +2250,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="107" t="s">
+    <row r="24" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A24" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="109"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="93"/>
+    </row>
+    <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>5</v>
       </c>
@@ -2334,7 +2276,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>6</v>
       </c>
@@ -2351,7 +2293,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
@@ -2368,7 +2310,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>11</v>
       </c>
@@ -2385,8 +2327,8 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="91" t="s">
+    <row r="29" x14ac:dyDescent="0.25">
+      <c r="A29" s="81" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="6">
@@ -2402,7 +2344,7 @@
         <v>-7.15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>18</v>
       </c>
@@ -2419,7 +2361,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>19</v>
       </c>
@@ -2436,7 +2378,7 @@
         <v>-2.72</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>20</v>
       </c>
@@ -2453,8 +2395,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="91" t="s">
+    <row r="33" x14ac:dyDescent="0.25">
+      <c r="A33" s="81" t="s">
         <v>21</v>
       </c>
       <c r="B33" s="6">
@@ -2470,7 +2412,7 @@
         <v>-6.48</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>22</v>
       </c>
@@ -2487,8 +2429,8 @@
         <v>-3.06</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
+    <row r="35" x14ac:dyDescent="0.25">
+      <c r="A35" s="81" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="6">
@@ -2504,7 +2446,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>24</v>
       </c>
@@ -2521,7 +2463,7 @@
         <v>10.85</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>13</v>
       </c>
@@ -2538,7 +2480,7 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>14</v>
       </c>
@@ -2555,7 +2497,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>25</v>
       </c>
@@ -2572,7 +2514,7 @@
         <v>-0.52</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>26</v>
       </c>
@@ -2589,7 +2531,7 @@
         <v>-2.67</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>27</v>
       </c>
@@ -2606,7 +2548,7 @@
         <v>-2.61</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>28</v>
       </c>
@@ -2623,24 +2565,24 @@
         <v>16.78</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="92" t="s">
+    <row r="43" x14ac:dyDescent="0.25">
+      <c r="A43" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B43" s="74">
+      <c r="B43" s="64">
         <v>82.87</v>
       </c>
-      <c r="C43" s="75">
+      <c r="C43" s="65">
         <v>77.53</v>
       </c>
-      <c r="D43" s="74">
+      <c r="D43" s="64">
         <v>62.46</v>
       </c>
-      <c r="E43" s="76">
+      <c r="E43" s="66">
         <v>5.99</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>56</v>
       </c>
@@ -2657,33 +2599,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="92" t="s">
+    <row r="45" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A45" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="B45" s="43">
+      <c r="B45" s="64">
         <v>78.959999999999994</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C45" s="65">
         <v>63.33</v>
       </c>
-      <c r="D45" s="43">
+      <c r="D45" s="64">
         <v>53.2</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="66">
         <v>12.46</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="107" t="s">
+    <row r="46" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A46" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108"/>
-      <c r="D46" s="108"/>
-      <c r="E46" s="109"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="93"/>
+    </row>
+    <row r="47" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>3</v>
       </c>
@@ -2700,7 +2642,7 @@
         <v>1.81</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>9</v>
       </c>
@@ -2717,42 +2659,42 @@
         <v>-6.65</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" x14ac:dyDescent="0.25">
       <c r="A49" s="19"/>
       <c r="B49" s="2"/>
       <c r="C49" s="4"/>
       <c r="D49" s="2"/>
       <c r="E49" s="17"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" x14ac:dyDescent="0.25">
       <c r="A50" s="20"/>
       <c r="B50" s="3"/>
       <c r="C50" s="5"/>
       <c r="D50" s="3"/>
       <c r="E50" s="18"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="2"/>
       <c r="C51" s="4"/>
       <c r="D51" s="2"/>
       <c r="E51" s="17"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
       <c r="B52" s="3"/>
       <c r="C52" s="5"/>
       <c r="D52" s="3"/>
       <c r="E52" s="18"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" x14ac:dyDescent="0.25">
       <c r="A53" s="19"/>
       <c r="B53" s="2"/>
       <c r="C53" s="4"/>
       <c r="D53" s="2"/>
       <c r="E53" s="17"/>
     </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A54" s="29"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
@@ -2777,21 +2719,21 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="1" customWidth="true"/>
+    <col min="2" max="2" width="19" style="1" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="true"/>
+    <col min="4" max="4" width="19.7109375" style="1" customWidth="true"/>
+    <col min="5" max="5" width="14.85546875" style="1" customWidth="true"/>
+    <col min="6" max="6" width="3" style="1" customWidth="true"/>
     <col min="7" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="19.5" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -2808,16 +2750,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107" t="s">
+    <row r="2" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>13</v>
       </c>
@@ -2834,7 +2776,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
@@ -2851,7 +2793,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
@@ -2868,7 +2810,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>26</v>
       </c>
@@ -2885,31 +2827,31 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="104">
         <v>78.229842446709455</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="105">
         <v>36.595342692003591</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="104">
         <v>73.716404077849617</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="106" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="3">
         <v>79.831578947368143</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="67" t="s">
         <v>58</v>
       </c>
       <c r="D8" s="3">
@@ -2919,7 +2861,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" s="42" customFormat="true" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A9" s="48" t="s">
         <v>32</v>
       </c>
@@ -2936,16 +2878,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="28" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="107" t="s">
+    <row r="10" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A10" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="109"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="93"/>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
@@ -2962,7 +2904,7 @@
         <v>-1.0576287972076925</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
@@ -2979,7 +2921,7 @@
         <v>-2.1575924583361288</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>25</v>
       </c>
@@ -2996,7 +2938,7 @@
         <v>0.63298437987879608</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>26</v>
       </c>
@@ -3013,24 +2955,24 @@
         <v>-3.1527631431080132</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="108">
         <v>82.669138090824376</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="109">
         <v>50.021651122223368</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="108">
         <v>73.049119555143122</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="110">
         <v>-0.21417335292714737</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>31</v>
       </c>
@@ -3047,7 +2989,7 @@
         <v>-4.3882060142790014</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="42" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" s="42" customFormat="true" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A17" s="47" t="s">
         <v>32</v>
       </c>
@@ -3064,65 +3006,65 @@
         <v>1.5208522564238027</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="107" t="s">
+    <row r="18" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A18" s="91" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
       <c r="D19" s="8"/>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="3"/>
       <c r="C20" s="5"/>
       <c r="D20" s="3"/>
       <c r="E20" s="18"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="2"/>
       <c r="C21" s="4"/>
       <c r="D21" s="2"/>
       <c r="E21" s="17"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="3"/>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
       <c r="E22" s="18"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="2"/>
       <c r="C23" s="4"/>
       <c r="D23" s="2"/>
       <c r="E23" s="17"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" x14ac:dyDescent="0.25">
       <c r="A24" s="20"/>
       <c r="B24" s="3"/>
       <c r="C24" s="5"/>
       <c r="D24" s="3"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4"/>
       <c r="D25" s="2"/>
       <c r="E25" s="17"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A26" s="29"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
@@ -3144,637 +3086,727 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234B6861-C9E6-46F0-8BAF-B7D8E2572558}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="49" customWidth="true"/>
+    <col min="2" max="2" width="12.85546875" style="49" customWidth="true"/>
+    <col min="3" max="3" width="10.42578125" style="49" customWidth="true"/>
     <col min="4" max="16384" width="8.85546875" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="66" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="113" t="s">
+    <row r="1" s="58" customFormat="true" ht="23.25" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A1" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="113" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="115"/>
-    </row>
-    <row r="2" spans="1:8" s="67" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110" t="s">
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="100"/>
+    </row>
+    <row r="2" s="59" customFormat="true" ht="18" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="110" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="111"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="110" t="s">
+      <c r="D2" s="101"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="111"/>
-      <c r="H2" s="112"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="93" t="s">
+      <c r="G2" s="101"/>
+      <c r="H2" s="98"/>
+    </row>
+    <row r="3" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A3" s="83" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="51" t="s">
+      <c r="C3" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="51" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="116" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="94" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="103">
+      <c r="C4" s="119">
         <v>3.6275510578287462</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="103"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="55" t="s">
+      <c r="D4" s="120"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="128">
+        <v>1.8606116263248594e-22</v>
+      </c>
+      <c r="G4" s="129"/>
+      <c r="H4" s="130"/>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="95"/>
+      <c r="B5" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="104">
+      <c r="C5" s="122">
         <v>8.4219430054056392</v>
       </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57"/>
-      <c r="H5" s="104"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
-      <c r="B6" s="55" t="s">
+      <c r="D5" s="123"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="131">
+        <v>0.00051935165638107832</v>
+      </c>
+      <c r="G5" s="132"/>
+      <c r="H5" s="133"/>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="95"/>
+      <c r="B6" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="104">
+      <c r="C6" s="122">
         <v>10.548724824306547</v>
       </c>
-      <c r="F6" s="56"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="104"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="55" t="s">
+      <c r="D6" s="123"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="131">
+        <v>2.6501273447068896</v>
+      </c>
+      <c r="G6" s="132"/>
+      <c r="H6" s="133"/>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="95"/>
+      <c r="B7" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="104">
+      <c r="C7" s="122">
         <v>8.3017063538856721</v>
       </c>
-      <c r="F7" s="56"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="104"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="118"/>
-      <c r="B8" s="58" t="s">
+      <c r="D7" s="123"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="131">
+        <v>5.0217537845057461</v>
+      </c>
+      <c r="G7" s="132"/>
+      <c r="H7" s="133"/>
+    </row>
+    <row r="8" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A8" s="96"/>
+      <c r="B8" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="105">
+      <c r="C8" s="125">
         <v>12.999289580405076</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="105"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="116" t="s">
+      <c r="D8" s="126"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="134">
+        <v>0.00024961024287453878</v>
+      </c>
+      <c r="G8" s="135"/>
+      <c r="H8" s="136"/>
+    </row>
+    <row r="9" x14ac:dyDescent="0.25">
+      <c r="A9" s="94" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="103">
+      <c r="C9" s="119">
         <v>3.1723573893429351</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="103"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="55" t="s">
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="128">
+        <v>3.9372680662960255e-16</v>
+      </c>
+      <c r="G9" s="129"/>
+      <c r="H9" s="130"/>
+    </row>
+    <row r="10" x14ac:dyDescent="0.25">
+      <c r="A10" s="95"/>
+      <c r="B10" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="104">
+      <c r="C10" s="122">
         <v>1.8752341946693913</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="104"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
-      <c r="B11" s="55" t="s">
+      <c r="D10" s="123"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="131">
+        <v>0.0007780366337028483</v>
+      </c>
+      <c r="G10" s="132"/>
+      <c r="H10" s="133"/>
+    </row>
+    <row r="11" x14ac:dyDescent="0.25">
+      <c r="A11" s="95"/>
+      <c r="B11" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="104">
+      <c r="C11" s="122">
         <v>1.6016144884493975</v>
       </c>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="104"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="55" t="s">
+      <c r="D11" s="123"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="131">
+        <v>1.142407435247053e-05</v>
+      </c>
+      <c r="G11" s="132"/>
+      <c r="H11" s="133"/>
+    </row>
+    <row r="12" x14ac:dyDescent="0.25">
+      <c r="A12" s="95"/>
+      <c r="B12" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="104">
+      <c r="C12" s="122">
         <v>7.0482409858152097</v>
       </c>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="104"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="118"/>
-      <c r="B13" s="58" t="s">
+      <c r="D12" s="123"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="131">
+        <v>2.8741807661118358e-07</v>
+      </c>
+      <c r="G12" s="132"/>
+      <c r="H12" s="133"/>
+    </row>
+    <row r="13" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A13" s="96"/>
+      <c r="B13" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="105">
+      <c r="C13" s="125">
         <v>14.501006113056667</v>
       </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="105"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="116" t="s">
+      <c r="D13" s="126"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="134">
+        <v>4.9371662833270124e-09</v>
+      </c>
+      <c r="G13" s="135"/>
+      <c r="H13" s="136"/>
+    </row>
+    <row r="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="94" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="103">
+      <c r="C14" s="119">
         <v>-1.6924879445117416</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="103"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="55" t="s">
+      <c r="D14" s="120"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="128">
+        <v>4.6477409901267686e-10</v>
+      </c>
+      <c r="G14" s="129"/>
+      <c r="H14" s="130"/>
+    </row>
+    <row r="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="95"/>
+      <c r="B15" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="104">
+      <c r="C15" s="122">
         <v>5.0509306373902305</v>
       </c>
-      <c r="F15" s="56"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="104"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="55" t="s">
+      <c r="D15" s="123"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="131">
+        <v>1.5860859934475133e-08</v>
+      </c>
+      <c r="G15" s="132"/>
+      <c r="H15" s="133"/>
+    </row>
+    <row r="16" x14ac:dyDescent="0.25">
+      <c r="A16" s="95"/>
+      <c r="B16" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="104">
+      <c r="C16" s="122">
         <v>10.684497506232622</v>
       </c>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="104"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="117"/>
-      <c r="B17" s="55" t="s">
+      <c r="D16" s="123"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="131">
+        <v>0.018161128103066193</v>
+      </c>
+      <c r="G16" s="132"/>
+      <c r="H16" s="133"/>
+    </row>
+    <row r="17" x14ac:dyDescent="0.25">
+      <c r="A17" s="95"/>
+      <c r="B17" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="104">
+      <c r="C17" s="122">
         <v>9.3744022731243213</v>
       </c>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="104"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="118"/>
-      <c r="B18" s="58" t="s">
+      <c r="D17" s="123"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="131">
+        <v>0.00062081026516982985</v>
+      </c>
+      <c r="G17" s="132"/>
+      <c r="H17" s="133"/>
+    </row>
+    <row r="18" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A18" s="96"/>
+      <c r="B18" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="105">
+      <c r="C18" s="125">
         <v>13.26918963308527</v>
       </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="105"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="116" t="s">
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="134">
+        <v>2.0535326481499199e-06</v>
+      </c>
+      <c r="G18" s="135"/>
+      <c r="H18" s="136"/>
+    </row>
+    <row r="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="94" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="103">
+      <c r="C19" s="119">
         <v>1.417221214381325</v>
       </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="103"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
-      <c r="B20" s="55" t="s">
+      <c r="D19" s="120"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="128">
+        <v>1.3703478585667156e-21</v>
+      </c>
+      <c r="G19" s="129"/>
+      <c r="H19" s="130"/>
+    </row>
+    <row r="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="95"/>
+      <c r="B20" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="104">
+      <c r="C20" s="122">
         <v>4.470794312417766</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="104"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="117"/>
-      <c r="B21" s="55" t="s">
+      <c r="D20" s="123"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="131">
+        <v>1.5076955303017472e-11</v>
+      </c>
+      <c r="G20" s="132"/>
+      <c r="H20" s="133"/>
+    </row>
+    <row r="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="95"/>
+      <c r="B21" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="104">
+      <c r="C21" s="122">
         <v>4.2765158854336756</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="104"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="117"/>
-      <c r="B22" s="55" t="s">
+      <c r="D21" s="123"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="131">
+        <v>9.246312284953016e-15</v>
+      </c>
+      <c r="G21" s="132"/>
+      <c r="H21" s="133"/>
+    </row>
+    <row r="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="95"/>
+      <c r="B22" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="104">
+      <c r="C22" s="122">
         <v>9.4804707645183051</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="104"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="118"/>
-      <c r="B23" s="58" t="s">
+      <c r="D22" s="123"/>
+      <c r="E22" s="124"/>
+      <c r="F22" s="131">
+        <v>1.3199528372116972e-18</v>
+      </c>
+      <c r="G22" s="132"/>
+      <c r="H22" s="133"/>
+    </row>
+    <row r="23" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A23" s="96"/>
+      <c r="B23" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="105">
+      <c r="C23" s="125">
         <v>13.949469473588241</v>
       </c>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="105"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="116" t="s">
+      <c r="D23" s="126"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="134">
+        <v>9.6351702140497626e-26</v>
+      </c>
+      <c r="G23" s="135"/>
+      <c r="H23" s="136"/>
+    </row>
+    <row r="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="94" t="s">
         <v>44</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="103">
+      <c r="C24" s="119">
         <v>3.7366944738493224</v>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="103"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="117"/>
-      <c r="B25" s="55" t="s">
+      <c r="D24" s="120"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="128">
+        <v>8.7468181796251142e-18</v>
+      </c>
+      <c r="G24" s="129"/>
+      <c r="H24" s="130"/>
+    </row>
+    <row r="25" x14ac:dyDescent="0.25">
+      <c r="A25" s="95"/>
+      <c r="B25" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="104">
+      <c r="C25" s="122">
         <v>6.5360215422612011</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="104"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
-      <c r="B26" s="55" t="s">
+      <c r="D25" s="123"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="131">
+        <v>4.2518202504414849e-09</v>
+      </c>
+      <c r="G25" s="132"/>
+      <c r="H25" s="133"/>
+    </row>
+    <row r="26" x14ac:dyDescent="0.25">
+      <c r="A26" s="95"/>
+      <c r="B26" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="104">
+      <c r="C26" s="122">
         <v>14.429060885828306</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="104"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="117"/>
-      <c r="B27" s="55" t="s">
+      <c r="D26" s="123"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="131">
+        <v>2.947566171429147</v>
+      </c>
+      <c r="G26" s="132"/>
+      <c r="H26" s="133"/>
+    </row>
+    <row r="27" x14ac:dyDescent="0.25">
+      <c r="A27" s="95"/>
+      <c r="B27" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="104">
+      <c r="C27" s="122">
         <v>11.364751096278244</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="104"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="118"/>
-      <c r="B28" s="58" t="s">
+      <c r="D27" s="123"/>
+      <c r="E27" s="124"/>
+      <c r="F27" s="131">
+        <v>0.043325414600633064</v>
+      </c>
+      <c r="G27" s="132"/>
+      <c r="H27" s="133"/>
+    </row>
+    <row r="28" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A28" s="96"/>
+      <c r="B28" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="105">
+      <c r="C28" s="125">
         <v>11.809503062936489</v>
       </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="105"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="116" t="s">
+      <c r="D28" s="126"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="134">
+        <v>7.0667040674100789</v>
+      </c>
+      <c r="G28" s="135"/>
+      <c r="H28" s="136"/>
+    </row>
+    <row r="29" x14ac:dyDescent="0.25">
+      <c r="A29" s="94" t="s">
         <v>67</v>
       </c>
       <c r="B29" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="103">
+      <c r="C29" s="119">
         <v>0.98260534907910624</v>
       </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="103"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="117"/>
-      <c r="B30" s="55" t="s">
+      <c r="D29" s="120"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="128">
+        <v>1.4927213919980418e-05</v>
+      </c>
+      <c r="G29" s="129"/>
+      <c r="H29" s="130"/>
+    </row>
+    <row r="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="95"/>
+      <c r="B30" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="104">
+      <c r="C30" s="122">
         <v>3.0875274715617675</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="104"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="117"/>
-      <c r="B31" s="55" t="s">
+      <c r="D30" s="123"/>
+      <c r="E30" s="124"/>
+      <c r="F30" s="131">
+        <v>3.6100431311301344</v>
+      </c>
+      <c r="G30" s="132"/>
+      <c r="H30" s="133"/>
+    </row>
+    <row r="31" x14ac:dyDescent="0.25">
+      <c r="A31" s="95"/>
+      <c r="B31" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="56"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="104">
+      <c r="C31" s="122">
         <v>12.23921973330935</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="104"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="117"/>
-      <c r="B32" s="55" t="s">
+      <c r="D31" s="123"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="131">
+        <v>1.0963609389521825e-07</v>
+      </c>
+      <c r="G31" s="132"/>
+      <c r="H31" s="133"/>
+    </row>
+    <row r="32" x14ac:dyDescent="0.25">
+      <c r="A32" s="95"/>
+      <c r="B32" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="104">
+      <c r="C32" s="122">
         <v>8.8681448702848638</v>
       </c>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="104"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="118"/>
-      <c r="B33" s="58" t="s">
+      <c r="D32" s="123"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="131">
+        <v>0.19384139322017396</v>
+      </c>
+      <c r="G32" s="132"/>
+      <c r="H32" s="133"/>
+    </row>
+    <row r="33" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A33" s="96"/>
+      <c r="B33" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="105">
+      <c r="C33" s="125">
         <v>18.350200134460078</v>
       </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="105"/>
-    </row>
-    <row r="34" spans="1:8" s="67" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="100"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="102"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="110" t="s">
+      <c r="D33" s="126"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="134">
+        <v>0.017769249305167305</v>
+      </c>
+      <c r="G33" s="135"/>
+      <c r="H33" s="136"/>
+    </row>
+    <row r="34" s="59" customFormat="true" ht="18" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A34" s="88"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="90"/>
+    </row>
+    <row r="35" ht="18" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A35" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="112"/>
-      <c r="C35" s="110" t="str">
+      <c r="B35" s="98"/>
+      <c r="C35" s="97" t="str">
         <f>C2</f>
         <v>Feature Isolation (MCC)</v>
       </c>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="110" t="str">
+      <c r="D35" s="101"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="97" t="str">
         <f>F2</f>
         <v>&lt;Feature Selection Strat&gt;</v>
       </c>
-      <c r="G35" s="111"/>
-      <c r="H35" s="112"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="101"/>
+      <c r="H35" s="98"/>
+    </row>
+    <row r="36" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="68" t="s">
+      <c r="B36" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="51" t="s">
+      <c r="C36" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="F36" s="70" t="str">
+      <c r="D36" s="117"/>
+      <c r="E36" s="118"/>
+      <c r="F36" s="116" t="str">
         <f>F3</f>
-        <v>P1:P6</v>
-      </c>
-      <c r="G36" s="69" t="str">
-        <f>G3</f>
-        <v>P7:P12</v>
-      </c>
-      <c r="H36" s="51" t="str">
-        <f>H3</f>
         <v>P1:P12</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="116" t="s">
+      <c r="G36" s="117"/>
+      <c r="H36" s="118"/>
+    </row>
+    <row r="37" x14ac:dyDescent="0.25">
+      <c r="A37" s="94" t="s">
         <v>29</v>
       </c>
       <c r="B37" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="103">
+      <c r="C37" s="119">
         <v>17.49158693997402</v>
       </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="103"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="117"/>
-      <c r="B38" s="55" t="s">
+      <c r="D37" s="120"/>
+      <c r="E37" s="121"/>
+      <c r="F37" s="128">
+        <v>5.3164420147111429</v>
+      </c>
+      <c r="G37" s="129"/>
+      <c r="H37" s="130"/>
+    </row>
+    <row r="38" x14ac:dyDescent="0.25">
+      <c r="A38" s="95"/>
+      <c r="B38" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="104" t="s">
+      <c r="C38" s="122" t="s">
         <v>68</v>
       </c>
-      <c r="F38" s="56"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="104"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="118"/>
-      <c r="B39" s="58" t="s">
+      <c r="D38" s="123"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="131">
+        <v>4.8070407980804593</v>
+      </c>
+      <c r="G38" s="132"/>
+      <c r="H38" s="133"/>
+    </row>
+    <row r="39" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A39" s="96"/>
+      <c r="B39" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="105" t="s">
+      <c r="C39" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="59"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="105"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="61" t="s">
+      <c r="D39" s="126"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="134">
+        <v>2.572310374621082</v>
+      </c>
+      <c r="G39" s="135"/>
+      <c r="H39" s="136"/>
+    </row>
+    <row r="40" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
+      <c r="B40" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="62"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="106" t="s">
+      <c r="C40" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="F40" s="62"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="106"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
-      <c r="B41" s="58" t="s">
+      <c r="D40" s="120"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="128">
+        <v>0.060136412501437801</v>
+      </c>
+      <c r="G40" s="129"/>
+      <c r="H40" s="130"/>
+    </row>
+    <row r="41" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A41" s="57"/>
+      <c r="B41" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="59"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="105" t="s">
+      <c r="C41" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="59"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="105"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="127"/>
+      <c r="F41" s="134">
+        <v>2.8928061197467767</v>
+      </c>
+      <c r="G41" s="135"/>
+      <c r="H41" s="136"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="54">
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A1:B1"/>
@@ -3784,15 +3816,16 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A14:A18"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="E4:E33 E37:E41 H4:H33 H37:H41">
+  <conditionalFormatting sqref="C4:C33 C37:C41">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -3802,7 +3835,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:D33 C37:D41 F4:G33 F37:G41">
+  <conditionalFormatting sqref="F4:F33 F37:F41">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3814,4 +3847,114 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8947FC1-3F6B-4EBF-B507-AFB21B01F3E6}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.85546875" style="1" customWidth="true"/>
+    <col min="2" max="2" width="19" style="1" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="true"/>
+    <col min="4" max="4" width="3" style="1" customWidth="true"/>
+    <col min="5" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19.5" thickBot="true" x14ac:dyDescent="0.35">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="28" customFormat="true" ht="21" customHeight="true" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+    </row>
+    <row r="3" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="11">
+        <v>81.23</v>
+      </c>
+      <c r="C3" s="112">
+        <v>48.98</v>
+      </c>
+    </row>
+    <row r="4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="111">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="C4" s="113">
+        <v>47.09</v>
+      </c>
+    </row>
+    <row r="5" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="8">
+        <v>79.95</v>
+      </c>
+      <c r="C5" s="114">
+        <v>47.13</v>
+      </c>
+    </row>
+    <row r="6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="8">
+        <v>81.540000000000006</v>
+      </c>
+      <c r="C6" s="114">
+        <v>49.48</v>
+      </c>
+    </row>
+    <row r="7" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="8">
+        <v>81.96</v>
+      </c>
+      <c r="C7" s="114">
+        <v>50.91</v>
+      </c>
+    </row>
+    <row r="8" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" s="42" customFormat="true" ht="15.75" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="A9" s="48"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="115"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>